--- a/DbTestData/UA_Lib_SoffListe.xlsx
+++ b/DbTestData/UA_Lib_SoffListe.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projekte\DbImportExport\DbTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52C10F37-D04D-4E3D-9AA3-75EA7A6676DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24431AEE-2706-4E15-B64F-A66375DE2B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1710" yWindow="2300" windowWidth="35880" windowHeight="16530" xr2:uid="{5CCF822C-7C90-4A0E-AEF2-BB6214C2278B}"/>
+    <workbookView xWindow="30090" yWindow="1125" windowWidth="27660" windowHeight="14775" xr2:uid="{5CCF822C-7C90-4A0E-AEF2-BB6214C2278B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -4912,9 +4912,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -5228,33 +5226,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B0915A2-9551-4E04-A827-EBAD2E0D07CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5492D9-285B-4019-96CD-517BF5004E2F}">
   <dimension ref="A1:AQ379"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A347" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M217" sqref="M217"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="A124" sqref="A124:XFD124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" style="7" customWidth="1"/>
-    <col min="2" max="2" width="9.26953125" customWidth="1"/>
-    <col min="3" max="3" width="20.1796875" customWidth="1"/>
-    <col min="5" max="5" width="18.1796875" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.1796875" style="5"/>
-    <col min="19" max="19" width="20.1796875" style="1"/>
-    <col min="22" max="22" width="20.1796875" style="1"/>
-    <col min="43" max="43" width="20.1796875" style="1"/>
+    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" style="5"/>
+    <col min="19" max="19" width="20.140625" style="1"/>
+    <col min="22" max="22" width="20.140625" style="1"/>
+    <col min="43" max="43" width="20.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1260</v>
       </c>
@@ -5296,7 +5292,7 @@
       <c r="V1" s="3"/>
       <c r="AQ1" s="3"/>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>1261</v>
       </c>
@@ -5315,13 +5311,13 @@
       <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="8">
         <v>101</v>
       </c>
       <c r="H2">
         <v>5.6867999999999999</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="8">
         <v>894</v>
       </c>
       <c r="J2">
@@ -5331,7 +5327,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1262</v>
       </c>
@@ -5350,13 +5346,13 @@
       <c r="F3" t="s">
         <v>6</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="8">
         <v>107</v>
       </c>
       <c r="H3">
         <v>6.9611999999999998</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="8">
         <v>909</v>
       </c>
       <c r="J3">
@@ -5366,7 +5362,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -5377,17 +5373,17 @@
         <v>7</v>
       </c>
       <c r="E4" s="5"/>
-      <c r="G4">
+      <c r="G4" s="8">
         <v>77</v>
       </c>
       <c r="H4">
         <v>7.6840000000000002</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="8">
         <v>979</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>1263</v>
       </c>
@@ -5406,13 +5402,13 @@
       <c r="F5" t="s">
         <v>10</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="8">
         <v>146</v>
       </c>
       <c r="H5">
         <v>8.4985999999999997</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="8">
         <v>1012</v>
       </c>
       <c r="J5">
@@ -5425,7 +5421,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>1264</v>
       </c>
@@ -5444,13 +5440,13 @@
       <c r="F6" t="s">
         <v>13</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="8">
         <v>71</v>
       </c>
       <c r="H6">
         <v>8.7922999999999991</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="8">
         <v>1054</v>
       </c>
       <c r="J6">
@@ -5460,7 +5456,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>1265</v>
       </c>
@@ -5479,13 +5475,13 @@
       <c r="F7" t="s">
         <v>17</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="8">
         <v>59</v>
       </c>
       <c r="H7">
         <v>9.0098000000000003</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="8">
         <v>1058</v>
       </c>
       <c r="J7">
@@ -5498,7 +5494,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>1266</v>
       </c>
@@ -5517,13 +5513,13 @@
       <c r="F8" t="s">
         <v>22</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="8">
         <v>124</v>
       </c>
       <c r="H8">
         <v>10.289400000000001</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="8">
         <v>1083</v>
       </c>
       <c r="J8">
@@ -5533,7 +5529,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1267</v>
       </c>
@@ -5552,13 +5548,13 @@
       <c r="F9" t="s">
         <v>26</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="8">
         <v>98</v>
       </c>
       <c r="H9">
         <v>11.186400000000001</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="8">
         <v>1141</v>
       </c>
       <c r="J9">
@@ -5568,7 +5564,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>1268</v>
       </c>
@@ -5587,13 +5583,13 @@
       <c r="F10" t="s">
         <v>30</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="8">
         <v>108</v>
       </c>
       <c r="H10">
         <v>11.5954</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="8">
         <v>1118</v>
       </c>
       <c r="J10">
@@ -5603,7 +5599,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>1269</v>
       </c>
@@ -5622,13 +5618,13 @@
       <c r="F11" t="s">
         <v>34</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="8">
         <v>82</v>
       </c>
       <c r="H11">
         <v>11.8292</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="8">
         <v>1203</v>
       </c>
       <c r="J11">
@@ -5638,7 +5634,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>1270</v>
       </c>
@@ -5657,13 +5653,13 @@
       <c r="F12" t="s">
         <v>38</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="8">
         <v>83</v>
       </c>
       <c r="H12">
         <v>12.065899999999999</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="8">
         <v>1197</v>
       </c>
       <c r="J12">
@@ -5676,7 +5672,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>1271</v>
       </c>
@@ -5695,13 +5691,13 @@
       <c r="F13" t="s">
         <v>43</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="8">
         <v>133</v>
       </c>
       <c r="H13">
         <v>12.092499999999999</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="8">
         <v>1156</v>
       </c>
       <c r="J13">
@@ -5714,7 +5710,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>1272</v>
       </c>
@@ -5733,13 +5729,13 @@
       <c r="F14" t="s">
         <v>47</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="8">
         <v>129</v>
       </c>
       <c r="H14">
         <v>13.2217</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="8">
         <v>1245</v>
       </c>
       <c r="J14">
@@ -5752,7 +5748,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>1273</v>
       </c>
@@ -5771,13 +5767,13 @@
       <c r="F15" t="s">
         <v>52</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="8">
         <v>143</v>
       </c>
       <c r="H15">
         <v>13.9854</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="8">
         <v>1288</v>
       </c>
       <c r="J15">
@@ -5790,7 +5786,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>1274</v>
       </c>
@@ -5809,13 +5805,13 @@
       <c r="F16" t="s">
         <v>57</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="8">
         <v>165</v>
       </c>
       <c r="H16">
         <v>16.308499999999999</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="8">
         <v>1471</v>
       </c>
       <c r="J16">
@@ -5825,7 +5821,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>1275</v>
       </c>
@@ -5844,13 +5840,13 @@
       <c r="F17" t="s">
         <v>61</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="8">
         <v>119</v>
       </c>
       <c r="H17">
         <v>16.329000000000001</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="8">
         <v>1469</v>
       </c>
       <c r="J17">
@@ -5863,7 +5859,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>1276</v>
       </c>
@@ -5882,13 +5878,13 @@
       <c r="F18" t="s">
         <v>66</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="8">
         <v>191</v>
       </c>
       <c r="H18">
         <v>16.757899999999999</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="8">
         <v>1513</v>
       </c>
       <c r="J18">
@@ -5901,7 +5897,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>1277</v>
       </c>
@@ -5920,13 +5916,13 @@
       <c r="F19" t="s">
         <v>43</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="8">
         <v>133</v>
       </c>
       <c r="H19">
         <v>17.1572</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="8">
         <v>1577</v>
       </c>
       <c r="J19">
@@ -5939,7 +5935,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>1278</v>
       </c>
@@ -5958,13 +5954,13 @@
       <c r="F20" t="s">
         <v>72</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="8">
         <v>119</v>
       </c>
       <c r="H20">
         <v>17.755400000000002</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="8">
         <v>1505</v>
       </c>
       <c r="J20">
@@ -5974,7 +5970,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>1279</v>
       </c>
@@ -5993,13 +5989,13 @@
       <c r="F21" t="s">
         <v>76</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="8">
         <v>100</v>
       </c>
       <c r="H21">
         <v>17.951899999999998</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="8">
         <v>1636</v>
       </c>
       <c r="J21">
@@ -6009,7 +6005,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>1280</v>
       </c>
@@ -6028,13 +6024,13 @@
       <c r="F22" t="s">
         <v>80</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="8">
         <v>181</v>
       </c>
       <c r="H22">
         <v>18.056799999999999</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="8">
         <v>1607</v>
       </c>
       <c r="J22">
@@ -6047,7 +6043,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>1281</v>
       </c>
@@ -6066,13 +6062,13 @@
       <c r="F23" t="s">
         <v>84</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="8">
         <v>170</v>
       </c>
       <c r="H23">
         <v>20.200900000000001</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="8">
         <v>1797</v>
       </c>
       <c r="J23">
@@ -6085,7 +6081,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>1282</v>
       </c>
@@ -6104,13 +6100,13 @@
       <c r="F24" t="s">
         <v>89</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="8">
         <v>125</v>
       </c>
       <c r="H24">
         <v>20.3993</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="8">
         <v>1814</v>
       </c>
       <c r="J24">
@@ -6123,7 +6119,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>1589</v>
       </c>
@@ -6142,13 +6138,13 @@
       <c r="F25" t="s">
         <v>89</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="8">
         <v>99</v>
       </c>
       <c r="H25">
         <v>20.522300000000001</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="8">
         <v>1798</v>
       </c>
       <c r="J25">
@@ -6158,7 +6154,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>93</v>
       </c>
@@ -6169,20 +6165,20 @@
         <v>93</v>
       </c>
       <c r="E26" s="5"/>
-      <c r="G26">
+      <c r="G26" s="8">
         <v>243</v>
       </c>
       <c r="H26">
         <v>21.299199999999999</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="8">
         <v>1895</v>
       </c>
       <c r="K26" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>1283</v>
       </c>
@@ -6201,13 +6197,13 @@
       <c r="F27" t="s">
         <v>98</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="8">
         <v>86</v>
       </c>
       <c r="H27">
         <v>21.515000000000001</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="8">
         <v>1912</v>
       </c>
       <c r="J27">
@@ -6220,7 +6216,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>100</v>
       </c>
@@ -6231,20 +6227,20 @@
         <v>100</v>
       </c>
       <c r="E28" s="5"/>
-      <c r="G28">
+      <c r="G28" s="8">
         <v>243</v>
       </c>
       <c r="H28">
         <v>21.640899999999998</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="8">
         <v>1928</v>
       </c>
       <c r="K28" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>1284</v>
       </c>
@@ -6263,13 +6259,13 @@
       <c r="F29" t="s">
         <v>104</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="8">
         <v>163</v>
       </c>
       <c r="H29">
         <v>21.758600000000001</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="8">
         <v>1916</v>
       </c>
       <c r="J29">
@@ -6282,7 +6278,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>1572</v>
       </c>
@@ -6298,13 +6294,13 @@
       <c r="F30" t="s">
         <v>107</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="8">
         <v>229</v>
       </c>
       <c r="H30">
         <v>22.283899999999999</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="8">
         <v>1951</v>
       </c>
       <c r="J30">
@@ -6317,7 +6313,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>1285</v>
       </c>
@@ -6336,13 +6332,13 @@
       <c r="F31" t="s">
         <v>111</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="8">
         <v>215</v>
       </c>
       <c r="H31">
         <v>22.5929</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="8">
         <v>2029</v>
       </c>
       <c r="J31">
@@ -6352,7 +6348,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>1586</v>
       </c>
@@ -6371,13 +6367,13 @@
       <c r="F32" t="s">
         <v>115</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="8">
         <v>120</v>
       </c>
       <c r="H32">
         <v>23.643799999999999</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="8">
         <v>2111</v>
       </c>
       <c r="J32">
@@ -6387,7 +6383,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>1286</v>
       </c>
@@ -6406,13 +6402,13 @@
       <c r="F33" t="s">
         <v>119</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="8">
         <v>190</v>
       </c>
       <c r="H33">
         <v>25.2393</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="8">
         <v>2283</v>
       </c>
       <c r="J33">
@@ -6422,7 +6418,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>1287</v>
       </c>
@@ -6441,13 +6437,13 @@
       <c r="F34" t="s">
         <v>123</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="8">
         <v>193</v>
       </c>
       <c r="H34">
         <v>26.0001</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="8">
         <v>2314</v>
       </c>
       <c r="J34">
@@ -6460,7 +6456,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>1288</v>
       </c>
@@ -6479,13 +6475,13 @@
       <c r="F35" t="s">
         <v>128</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="8">
         <v>180</v>
       </c>
       <c r="H35">
         <v>26.793199999999999</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="8">
         <v>2490</v>
       </c>
       <c r="J35">
@@ -6498,7 +6494,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>1578</v>
       </c>
@@ -6514,13 +6510,13 @@
       <c r="F36" t="s">
         <v>132</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="8">
         <v>94</v>
       </c>
       <c r="H36">
         <v>26.810099999999998</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="8">
         <v>2428</v>
       </c>
       <c r="J36">
@@ -6533,7 +6529,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>1563</v>
       </c>
@@ -6552,13 +6548,13 @@
       <c r="F37" t="s">
         <v>137</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="8">
         <v>207</v>
       </c>
       <c r="H37">
         <v>26.899000000000001</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="8">
         <v>2499</v>
       </c>
       <c r="J37">
@@ -6571,7 +6567,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>138</v>
       </c>
@@ -6582,20 +6578,20 @@
         <v>138</v>
       </c>
       <c r="E38" s="5"/>
-      <c r="G38">
+      <c r="G38" s="8">
         <v>94</v>
       </c>
       <c r="H38">
         <v>26.9466</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="8">
         <v>2501</v>
       </c>
       <c r="K38" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>139</v>
       </c>
@@ -6606,20 +6602,20 @@
         <v>139</v>
       </c>
       <c r="E39" s="5"/>
-      <c r="G39">
+      <c r="G39" s="8">
         <v>94</v>
       </c>
       <c r="H39">
         <v>27.113700000000001</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="8">
         <v>2521</v>
       </c>
       <c r="K39" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>1289</v>
       </c>
@@ -6638,13 +6634,13 @@
       <c r="F40" t="s">
         <v>143</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="8">
         <v>277</v>
       </c>
       <c r="H40">
         <v>27.407800000000002</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="8">
         <v>2561</v>
       </c>
       <c r="J40">
@@ -6654,7 +6650,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>1577</v>
       </c>
@@ -6670,13 +6666,13 @@
       <c r="F41" t="s">
         <v>146</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="8">
         <v>94</v>
       </c>
       <c r="H41">
         <v>27.448399999999999</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="8">
         <v>2528</v>
       </c>
       <c r="J41">
@@ -6689,7 +6685,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>147</v>
       </c>
@@ -6700,20 +6696,20 @@
         <v>147</v>
       </c>
       <c r="E42" s="5"/>
-      <c r="G42">
+      <c r="G42" s="8">
         <v>94</v>
       </c>
       <c r="H42">
         <v>27.631</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="8">
         <v>2584</v>
       </c>
       <c r="K42" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>148</v>
       </c>
@@ -6724,20 +6720,20 @@
         <v>148</v>
       </c>
       <c r="E43" s="5"/>
-      <c r="G43">
+      <c r="G43" s="8">
         <v>94</v>
       </c>
       <c r="H43">
         <v>27.685700000000001</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="8">
         <v>2590</v>
       </c>
       <c r="K43" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>149</v>
       </c>
@@ -6748,20 +6744,20 @@
         <v>149</v>
       </c>
       <c r="E44" s="5"/>
-      <c r="G44">
+      <c r="G44" s="8">
         <v>94</v>
       </c>
       <c r="H44">
         <v>27.7879</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="8">
         <v>2603</v>
       </c>
       <c r="K44" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>150</v>
       </c>
@@ -6772,20 +6768,20 @@
         <v>150</v>
       </c>
       <c r="E45" s="5"/>
-      <c r="G45">
+      <c r="G45" s="8">
         <v>94</v>
       </c>
       <c r="H45">
         <v>27.844799999999999</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="8">
         <v>2610</v>
       </c>
       <c r="K45" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>1575</v>
       </c>
@@ -6801,13 +6797,13 @@
       <c r="F46" t="s">
         <v>153</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="8">
         <v>94</v>
       </c>
       <c r="H46">
         <v>27.9559</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="8">
         <v>2627</v>
       </c>
       <c r="J46">
@@ -6820,7 +6816,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>154</v>
       </c>
@@ -6831,20 +6827,20 @@
         <v>154</v>
       </c>
       <c r="E47" s="5"/>
-      <c r="G47">
+      <c r="G47" s="8">
         <v>94</v>
       </c>
       <c r="H47">
         <v>28.2882</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="8">
         <v>2665</v>
       </c>
       <c r="K47" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>155</v>
       </c>
@@ -6855,20 +6851,20 @@
         <v>155</v>
       </c>
       <c r="E48" s="5"/>
-      <c r="G48">
+      <c r="G48" s="8">
         <v>94</v>
       </c>
       <c r="H48">
         <v>28.4542</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="8">
         <v>2685</v>
       </c>
       <c r="K48" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>156</v>
       </c>
@@ -6879,20 +6875,20 @@
         <v>156</v>
       </c>
       <c r="E49" s="5"/>
-      <c r="G49">
+      <c r="G49" s="8">
         <v>94</v>
       </c>
       <c r="H49">
         <v>28.674600000000002</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="8">
         <v>2713</v>
       </c>
       <c r="K49" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>157</v>
       </c>
@@ -6903,20 +6899,20 @@
         <v>157</v>
       </c>
       <c r="E50" s="5"/>
-      <c r="G50">
+      <c r="G50" s="8">
         <v>94</v>
       </c>
       <c r="H50">
         <v>28.768999999999998</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="8">
         <v>2725</v>
       </c>
       <c r="K50" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>158</v>
       </c>
@@ -6927,20 +6923,20 @@
         <v>158</v>
       </c>
       <c r="E51" s="5"/>
-      <c r="G51">
+      <c r="G51" s="8">
         <v>94</v>
       </c>
       <c r="H51">
         <v>29.099</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="8">
         <v>2767</v>
       </c>
       <c r="K51" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>1576</v>
       </c>
@@ -6956,13 +6952,13 @@
       <c r="F52" t="s">
         <v>161</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="8">
         <v>94</v>
       </c>
       <c r="H52">
         <v>29.269100000000002</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="8">
         <v>2826</v>
       </c>
       <c r="J52">
@@ -6975,7 +6971,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>1290</v>
       </c>
@@ -6994,13 +6990,13 @@
       <c r="F53" t="s">
         <v>165</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="8">
         <v>160</v>
       </c>
       <c r="H53">
         <v>23.026199999999999</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="8">
         <v>2049</v>
       </c>
       <c r="J53">
@@ -7010,7 +7006,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>1291</v>
       </c>
@@ -7029,13 +7025,13 @@
       <c r="F54" t="s">
         <v>169</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="8">
         <v>104</v>
       </c>
       <c r="H54">
         <v>5.9287999999999998</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="8">
         <v>893</v>
       </c>
       <c r="J54">
@@ -7048,7 +7044,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>1292</v>
       </c>
@@ -7067,13 +7063,13 @@
       <c r="F55" t="s">
         <v>174</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="8">
         <v>228</v>
       </c>
       <c r="H55">
         <v>20.5443</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="8">
         <v>1827</v>
       </c>
       <c r="J55">
@@ -7083,7 +7079,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>1293</v>
       </c>
@@ -7102,13 +7098,13 @@
       <c r="F56" t="s">
         <v>178</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="8">
         <v>192</v>
       </c>
       <c r="H56">
         <v>16.7407</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="8">
         <v>1500</v>
       </c>
       <c r="J56">
@@ -7118,7 +7114,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>1294</v>
       </c>
@@ -7137,13 +7133,13 @@
       <c r="F57" t="s">
         <v>182</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="8">
         <v>140</v>
       </c>
       <c r="H57">
         <v>9.8102</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="8">
         <v>1066</v>
       </c>
       <c r="J57">
@@ -7156,7 +7152,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>1295</v>
       </c>
@@ -7175,13 +7171,13 @@
       <c r="F58" t="s">
         <v>187</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="8">
         <v>90</v>
       </c>
       <c r="H58">
         <v>18.355599999999999</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="8">
         <v>1557</v>
       </c>
       <c r="J58">
@@ -7191,7 +7187,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>1296</v>
       </c>
@@ -7210,13 +7206,13 @@
       <c r="F59" t="s">
         <v>191</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="8">
         <v>135</v>
       </c>
       <c r="H59">
         <v>12.638400000000001</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="8">
         <v>1229</v>
       </c>
       <c r="J59">
@@ -7229,7 +7225,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>1297</v>
       </c>
@@ -7248,13 +7244,13 @@
       <c r="F60" t="s">
         <v>195</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="8">
         <v>73</v>
       </c>
       <c r="H60">
         <v>20.5764</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="8">
         <v>1860</v>
       </c>
       <c r="J60">
@@ -7267,7 +7263,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>1298</v>
       </c>
@@ -7286,13 +7282,13 @@
       <c r="F61" t="s">
         <v>200</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="8">
         <v>180</v>
       </c>
       <c r="H61">
         <v>21.2331</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="8">
         <v>1977</v>
       </c>
       <c r="J61">
@@ -7302,7 +7298,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>1299</v>
       </c>
@@ -7321,13 +7317,13 @@
       <c r="F62" t="s">
         <v>204</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="8">
         <v>185</v>
       </c>
       <c r="H62">
         <v>21.930599999999998</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="8">
         <v>1962</v>
       </c>
       <c r="J62">
@@ -7337,7 +7333,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>1300</v>
       </c>
@@ -7356,13 +7352,13 @@
       <c r="F63" t="s">
         <v>207</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="8">
         <v>121</v>
       </c>
       <c r="H63">
         <v>11.6404</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="8">
         <v>1171</v>
       </c>
       <c r="J63">
@@ -7372,7 +7368,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>1301</v>
       </c>
@@ -7391,13 +7387,13 @@
       <c r="F64" t="s">
         <v>211</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="8">
         <v>119</v>
       </c>
       <c r="H64">
         <v>11.1579</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="8">
         <v>1149</v>
       </c>
       <c r="J64">
@@ -7407,7 +7403,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>1302</v>
       </c>
@@ -7426,13 +7422,13 @@
       <c r="F65" t="s">
         <v>214</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="8">
         <v>121</v>
       </c>
       <c r="H65">
         <v>10.1241</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="8">
         <v>1098</v>
       </c>
       <c r="J65">
@@ -7442,7 +7438,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>1303</v>
       </c>
@@ -7461,13 +7457,13 @@
       <c r="F66" t="s">
         <v>218</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="8">
         <v>149</v>
       </c>
       <c r="H66">
         <v>28.95</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="8">
         <v>2707</v>
       </c>
       <c r="J66">
@@ -7480,7 +7476,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>1304</v>
       </c>
@@ -7499,13 +7495,13 @@
       <c r="F67" t="s">
         <v>222</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="8">
         <v>94</v>
       </c>
       <c r="H67">
         <v>7.9764999999999997</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="8">
         <v>989</v>
       </c>
       <c r="J67">
@@ -7515,7 +7511,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>1516</v>
       </c>
@@ -7534,13 +7530,13 @@
       <c r="F68" t="s">
         <v>13</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="8">
         <v>71</v>
       </c>
       <c r="H68">
         <v>9.5480999999999998</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="8">
         <v>1046</v>
       </c>
       <c r="J68">
@@ -7550,7 +7546,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>1305</v>
       </c>
@@ -7569,13 +7565,13 @@
       <c r="F69" t="s">
         <v>228</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="8">
         <v>209</v>
       </c>
       <c r="H69">
         <v>7.44</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="8">
         <v>1087</v>
       </c>
       <c r="J69">
@@ -7588,7 +7584,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>1580</v>
       </c>
@@ -7607,13 +7603,13 @@
       <c r="F70" t="s">
         <v>232</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="8">
         <v>123</v>
       </c>
       <c r="H70">
         <v>6.1965000000000003</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="8">
         <v>944</v>
       </c>
       <c r="J70">
@@ -7623,7 +7619,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>1306</v>
       </c>
@@ -7642,13 +7638,13 @@
       <c r="F71" t="s">
         <v>235</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="8">
         <v>147</v>
       </c>
       <c r="H71">
         <v>26.322500000000002</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="8">
         <v>1553</v>
       </c>
       <c r="J71">
@@ -7661,7 +7657,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>1307</v>
       </c>
@@ -7680,13 +7676,13 @@
       <c r="F72" t="s">
         <v>239</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="8">
         <v>214</v>
       </c>
       <c r="H72">
         <v>24.2561</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="8">
         <v>2301</v>
       </c>
       <c r="J72">
@@ -7699,7 +7695,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>241</v>
       </c>
@@ -7710,20 +7706,20 @@
         <v>241</v>
       </c>
       <c r="E73" s="5"/>
-      <c r="G73">
+      <c r="G73" s="8">
         <v>147</v>
       </c>
       <c r="H73">
         <v>25.0688</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="8">
         <v>2285</v>
       </c>
       <c r="K73" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>1308</v>
       </c>
@@ -7742,13 +7738,13 @@
       <c r="F74" t="s">
         <v>246</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="8">
         <v>179</v>
       </c>
       <c r="H74">
         <v>16.205200000000001</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="8">
         <v>1488</v>
       </c>
       <c r="J74">
@@ -7758,7 +7754,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>247</v>
       </c>
@@ -7769,20 +7765,20 @@
         <v>247</v>
       </c>
       <c r="E75" s="5"/>
-      <c r="G75">
+      <c r="G75" s="8">
         <v>123</v>
       </c>
       <c r="H75">
         <v>5.6436999999999999</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="8">
         <v>908</v>
       </c>
       <c r="K75" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>1593</v>
       </c>
@@ -7801,13 +7797,13 @@
       <c r="F76" t="s">
         <v>252</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="8">
         <v>148</v>
       </c>
       <c r="H76">
         <v>13.8362</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="8">
         <v>1184</v>
       </c>
       <c r="J76">
@@ -7817,7 +7813,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>1309</v>
       </c>
@@ -7836,13 +7832,13 @@
       <c r="F77" t="s">
         <v>256</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="8">
         <v>69</v>
       </c>
       <c r="H77">
         <v>8.9362999999999992</v>
       </c>
-      <c r="I77">
+      <c r="I77" s="8">
         <v>1138</v>
       </c>
       <c r="J77">
@@ -7852,7 +7848,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>1310</v>
       </c>
@@ -7871,13 +7867,13 @@
       <c r="F78" t="s">
         <v>34</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="8">
         <v>82</v>
       </c>
       <c r="H78">
         <v>11.723800000000001</v>
       </c>
-      <c r="I78">
+      <c r="I78" s="8">
         <v>1182</v>
       </c>
       <c r="J78">
@@ -7890,7 +7886,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>261</v>
       </c>
@@ -7901,20 +7897,20 @@
         <v>261</v>
       </c>
       <c r="E79" s="5"/>
-      <c r="G79">
+      <c r="G79" s="8">
         <v>149</v>
       </c>
       <c r="H79">
         <v>29.558299999999999</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="8">
         <v>2826</v>
       </c>
       <c r="K79" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>1311</v>
       </c>
@@ -7933,13 +7929,13 @@
       <c r="F80" t="s">
         <v>265</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="8">
         <v>149</v>
       </c>
       <c r="H80">
         <v>29.7395</v>
       </c>
-      <c r="I80">
+      <c r="I80" s="8">
         <v>2902</v>
       </c>
       <c r="J80">
@@ -7952,7 +7948,7 @@
         <v>91.3</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>1582</v>
       </c>
@@ -7968,13 +7964,13 @@
       <c r="F81" t="s">
         <v>268</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="8">
         <v>149</v>
       </c>
       <c r="H81">
         <v>29.365500000000001</v>
       </c>
-      <c r="I81">
+      <c r="I81" s="8">
         <v>2803</v>
       </c>
       <c r="J81">
@@ -7987,7 +7983,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>1584</v>
       </c>
@@ -8003,13 +7999,13 @@
       <c r="F82" t="s">
         <v>218</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="8">
         <v>149</v>
       </c>
       <c r="H82">
         <v>29.145600000000002</v>
       </c>
-      <c r="I82">
+      <c r="I82" s="8">
         <v>2768</v>
       </c>
       <c r="J82">
@@ -8022,7 +8018,7 @@
         <v>85.2</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>1312</v>
       </c>
@@ -8041,13 +8037,13 @@
       <c r="F83" t="s">
         <v>265</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="8">
         <v>149</v>
       </c>
       <c r="H83">
         <v>29.936499999999999</v>
       </c>
-      <c r="I83">
+      <c r="I83" s="8">
         <v>2880</v>
       </c>
       <c r="J83">
@@ -8060,7 +8056,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>1313</v>
       </c>
@@ -8079,13 +8075,13 @@
       <c r="F84" t="s">
         <v>278</v>
       </c>
-      <c r="G84">
+      <c r="G84" s="8">
         <v>163</v>
       </c>
       <c r="H84">
         <v>16.390899999999998</v>
       </c>
-      <c r="I84">
+      <c r="I84" s="8">
         <v>1432</v>
       </c>
       <c r="J84">
@@ -8098,7 +8094,7 @@
         <v>84.8</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>1314</v>
       </c>
@@ -8117,13 +8113,13 @@
       <c r="F85" t="s">
         <v>281</v>
       </c>
-      <c r="G85">
+      <c r="G85" s="8">
         <v>147</v>
       </c>
       <c r="H85">
         <v>23.7104</v>
       </c>
-      <c r="I85">
+      <c r="I85" s="8">
         <v>2338</v>
       </c>
       <c r="J85">
@@ -8136,7 +8132,7 @@
         <v>81.8</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>1315</v>
       </c>
@@ -8155,13 +8151,13 @@
       <c r="F86" t="s">
         <v>285</v>
       </c>
-      <c r="G86">
+      <c r="G86" s="8">
         <v>147</v>
       </c>
       <c r="H86">
         <v>15.8094</v>
       </c>
-      <c r="I86">
+      <c r="I86" s="8">
         <v>1470</v>
       </c>
       <c r="J86">
@@ -8171,7 +8167,7 @@
         <v>86.8</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>1316</v>
       </c>
@@ -8190,13 +8186,13 @@
       <c r="F87" t="s">
         <v>288</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="8">
         <v>73.099999999999994</v>
       </c>
       <c r="H87">
         <v>14.2315</v>
       </c>
-      <c r="I87">
+      <c r="I87" s="8">
         <v>1335</v>
       </c>
       <c r="J87">
@@ -8209,7 +8205,7 @@
         <v>88.4</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>1317</v>
       </c>
@@ -8228,13 +8224,13 @@
       <c r="F88" t="s">
         <v>292</v>
       </c>
-      <c r="G88">
+      <c r="G88" s="8">
         <v>149</v>
       </c>
       <c r="H88">
         <v>22.069900000000001</v>
       </c>
-      <c r="I88">
+      <c r="I88" s="8">
         <v>1965</v>
       </c>
       <c r="J88">
@@ -8247,7 +8243,7 @@
         <v>84.6</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>1318</v>
       </c>
@@ -8266,13 +8262,13 @@
       <c r="F89" t="s">
         <v>26</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="8">
         <v>83.1</v>
       </c>
       <c r="H89">
         <v>8.9560999999999993</v>
       </c>
-      <c r="I89">
+      <c r="I89" s="8">
         <v>1032</v>
       </c>
       <c r="J89">
@@ -8285,7 +8281,7 @@
         <v>80.900000000000006</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>1319</v>
       </c>
@@ -8304,13 +8300,13 @@
       <c r="F90" t="s">
         <v>300</v>
       </c>
-      <c r="G90">
+      <c r="G90" s="8">
         <v>75.099999999999994</v>
       </c>
       <c r="H90">
         <v>12.5585</v>
       </c>
-      <c r="I90">
+      <c r="I90" s="8">
         <v>1221</v>
       </c>
       <c r="J90">
@@ -8323,7 +8319,7 @@
         <v>80.099999999999994</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>1537</v>
       </c>
@@ -8342,13 +8338,13 @@
       <c r="F91" t="s">
         <v>305</v>
       </c>
-      <c r="G91">
+      <c r="G91" s="8">
         <v>55.1</v>
       </c>
       <c r="H91">
         <v>6.6955</v>
       </c>
-      <c r="I91">
+      <c r="I91" s="8">
         <v>953</v>
       </c>
       <c r="J91">
@@ -8358,7 +8354,7 @@
         <v>84.9</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>1320</v>
       </c>
@@ -8377,13 +8373,13 @@
       <c r="F92" t="s">
         <v>309</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="8">
         <v>98</v>
       </c>
       <c r="H92">
         <v>13.6997</v>
       </c>
-      <c r="I92">
+      <c r="I92" s="8">
         <v>1300</v>
       </c>
       <c r="J92">
@@ -8393,7 +8389,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>1592</v>
       </c>
@@ -8412,13 +8408,13 @@
       <c r="F93" t="s">
         <v>313</v>
       </c>
-      <c r="G93">
+      <c r="G93" s="8">
         <v>198</v>
       </c>
       <c r="H93">
         <v>21.424299999999999</v>
       </c>
-      <c r="I93">
+      <c r="I93" s="8">
         <v>1883</v>
       </c>
       <c r="J93">
@@ -8428,7 +8424,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>1573</v>
       </c>
@@ -8447,13 +8443,13 @@
       <c r="F94" t="s">
         <v>317</v>
       </c>
-      <c r="G94">
+      <c r="G94" s="8">
         <v>175</v>
       </c>
       <c r="H94">
         <v>19.982600000000001</v>
       </c>
-      <c r="I94">
+      <c r="I94" s="8">
         <v>1682</v>
       </c>
       <c r="J94">
@@ -8463,7 +8459,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>1583</v>
       </c>
@@ -8479,13 +8475,13 @@
       <c r="F95" t="s">
         <v>218</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="8">
         <v>149</v>
       </c>
       <c r="H95">
         <v>27.416399999999999</v>
       </c>
-      <c r="I95">
+      <c r="I95" s="8">
         <v>2575</v>
       </c>
       <c r="J95">
@@ -8498,7 +8494,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>1321</v>
       </c>
@@ -8517,13 +8513,13 @@
       <c r="F96" t="s">
         <v>323</v>
       </c>
-      <c r="G96">
+      <c r="G96" s="8">
         <v>135</v>
       </c>
       <c r="H96">
         <v>13.746600000000001</v>
       </c>
-      <c r="I96">
+      <c r="I96" s="8">
         <v>1299</v>
       </c>
       <c r="J96">
@@ -8533,7 +8529,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>1322</v>
       </c>
@@ -8552,13 +8548,13 @@
       <c r="F97" t="s">
         <v>327</v>
       </c>
-      <c r="G97">
+      <c r="G97" s="8">
         <v>89</v>
       </c>
       <c r="H97">
         <v>10.8352</v>
       </c>
-      <c r="I97">
+      <c r="I97" s="8">
         <v>506</v>
       </c>
       <c r="J97">
@@ -8571,7 +8567,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>328</v>
       </c>
@@ -8582,20 +8578,20 @@
         <v>328</v>
       </c>
       <c r="E98" s="5"/>
-      <c r="G98">
+      <c r="G98" s="8">
         <v>205</v>
       </c>
       <c r="H98">
         <v>21.8263</v>
       </c>
-      <c r="I98">
+      <c r="I98" s="8">
         <v>1946</v>
       </c>
       <c r="K98" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>330</v>
       </c>
@@ -8606,17 +8602,17 @@
         <v>330</v>
       </c>
       <c r="E99" s="5"/>
-      <c r="G99">
+      <c r="G99" s="8">
         <v>130</v>
       </c>
       <c r="H99">
         <v>20.0258</v>
       </c>
-      <c r="I99">
+      <c r="I99" s="8">
         <v>1777</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>331</v>
       </c>
@@ -8627,17 +8623,17 @@
         <v>331</v>
       </c>
       <c r="E100" s="5"/>
-      <c r="G100">
+      <c r="G100" s="8">
         <v>121</v>
       </c>
       <c r="H100">
         <v>21.279299999999999</v>
       </c>
-      <c r="I100">
+      <c r="I100" s="8">
         <v>1893</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>332</v>
       </c>
@@ -8648,20 +8644,20 @@
         <v>332</v>
       </c>
       <c r="E101" s="5"/>
-      <c r="G101">
+      <c r="G101" s="8">
         <v>149</v>
       </c>
       <c r="H101">
         <v>22.348199999999999</v>
       </c>
-      <c r="I101">
+      <c r="I101" s="8">
         <v>1998</v>
       </c>
       <c r="K101" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>333</v>
       </c>
@@ -8672,17 +8668,17 @@
         <v>333</v>
       </c>
       <c r="E102" s="5"/>
-      <c r="G102">
+      <c r="G102" s="8">
         <v>119</v>
       </c>
       <c r="H102">
         <v>21.192299999999999</v>
       </c>
-      <c r="I102">
+      <c r="I102" s="8">
         <v>1885</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>334</v>
       </c>
@@ -8693,17 +8689,17 @@
         <v>334</v>
       </c>
       <c r="E103" s="5"/>
-      <c r="G103">
+      <c r="G103" s="8">
         <v>257</v>
       </c>
       <c r="H103">
         <v>24.349900000000002</v>
       </c>
-      <c r="I103">
+      <c r="I103" s="8">
         <v>2206</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>335</v>
       </c>
@@ -8714,17 +8710,17 @@
         <v>335</v>
       </c>
       <c r="E104" s="5"/>
-      <c r="G104">
+      <c r="G104" s="8">
         <v>150</v>
       </c>
       <c r="H104">
         <v>21.117799999999999</v>
       </c>
-      <c r="I104">
+      <c r="I104" s="8">
         <v>1878</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>336</v>
       </c>
@@ -8735,17 +8731,17 @@
         <v>336</v>
       </c>
       <c r="E105" s="5"/>
-      <c r="G105">
+      <c r="G105" s="8">
         <v>164</v>
       </c>
       <c r="H105">
         <v>17.7864</v>
       </c>
-      <c r="I105">
+      <c r="I105" s="8">
         <v>1585</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>337</v>
       </c>
@@ -8756,17 +8752,17 @@
         <v>337</v>
       </c>
       <c r="E106" s="5"/>
-      <c r="G106">
+      <c r="G106" s="8">
         <v>116</v>
       </c>
       <c r="H106">
         <v>17.020199999999999</v>
       </c>
-      <c r="I106">
+      <c r="I106" s="8">
         <v>1524</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>338</v>
       </c>
@@ -8777,17 +8773,17 @@
         <v>338</v>
       </c>
       <c r="E107" s="5"/>
-      <c r="G107">
+      <c r="G107" s="8">
         <v>225</v>
       </c>
       <c r="H107">
         <v>23.898499999999999</v>
       </c>
-      <c r="I107">
+      <c r="I107" s="8">
         <v>2158</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>339</v>
       </c>
@@ -8798,17 +8794,17 @@
         <v>339</v>
       </c>
       <c r="E108" s="5"/>
-      <c r="G108">
+      <c r="G108" s="8">
         <v>135</v>
       </c>
       <c r="H108">
         <v>19.206900000000001</v>
       </c>
-      <c r="I108">
+      <c r="I108" s="8">
         <v>1704</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>340</v>
       </c>
@@ -8819,17 +8815,17 @@
         <v>340</v>
       </c>
       <c r="E109" s="5"/>
-      <c r="G109">
+      <c r="G109" s="8">
         <v>150</v>
       </c>
       <c r="H109">
         <v>22.171500000000002</v>
       </c>
-      <c r="I109">
+      <c r="I109" s="8">
         <v>1980</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>341</v>
       </c>
@@ -8840,20 +8836,20 @@
         <v>341</v>
       </c>
       <c r="E110" s="5"/>
-      <c r="G110">
+      <c r="G110" s="8">
         <v>149</v>
       </c>
       <c r="H110">
         <v>21.369900000000001</v>
       </c>
-      <c r="I110">
+      <c r="I110" s="8">
         <v>1902</v>
       </c>
       <c r="K110" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>1323</v>
       </c>
@@ -8872,13 +8868,13 @@
       <c r="F111" t="s">
         <v>345</v>
       </c>
-      <c r="G111">
+      <c r="G111" s="8">
         <v>92</v>
       </c>
       <c r="H111">
         <v>22.867599999999999</v>
       </c>
-      <c r="I111">
+      <c r="I111" s="8">
         <v>2072</v>
       </c>
       <c r="J111">
@@ -8891,7 +8887,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>347</v>
       </c>
@@ -8902,17 +8898,17 @@
         <v>347</v>
       </c>
       <c r="E112" s="5"/>
-      <c r="G112">
+      <c r="G112" s="8">
         <v>116</v>
       </c>
       <c r="H112">
         <v>16.662600000000001</v>
       </c>
-      <c r="I112">
+      <c r="I112" s="8">
         <v>1497</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>348</v>
       </c>
@@ -8923,17 +8919,17 @@
         <v>348</v>
       </c>
       <c r="E113" s="5"/>
-      <c r="G113">
+      <c r="G113" s="8">
         <v>152</v>
       </c>
       <c r="H113">
         <v>18.857900000000001</v>
       </c>
-      <c r="I113">
+      <c r="I113" s="8">
         <v>1674</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>1324</v>
       </c>
@@ -8952,20 +8948,20 @@
       <c r="F114" t="s">
         <v>352</v>
       </c>
-      <c r="G114">
+      <c r="G114" s="8">
         <v>57</v>
       </c>
       <c r="H114">
         <v>5.8891</v>
       </c>
-      <c r="I114">
+      <c r="I114" s="8">
         <v>910</v>
       </c>
       <c r="J114">
         <v>118.0993797</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>1579</v>
       </c>
@@ -8984,20 +8980,20 @@
       <c r="F115" t="s">
         <v>356</v>
       </c>
-      <c r="G115">
+      <c r="G115" s="8">
         <v>84</v>
       </c>
       <c r="H115">
         <v>6.1425999999999998</v>
       </c>
-      <c r="I115">
+      <c r="I115" s="8">
         <v>905</v>
       </c>
       <c r="J115">
         <v>140.15650099999999</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>1325</v>
       </c>
@@ -9016,20 +9012,20 @@
       <c r="F116" t="s">
         <v>359</v>
       </c>
-      <c r="G116">
+      <c r="G116" s="8">
         <v>103</v>
       </c>
       <c r="H116">
         <v>7.8794000000000004</v>
       </c>
-      <c r="I116">
+      <c r="I116" s="8">
         <v>987</v>
       </c>
       <c r="J116">
         <v>103.0421992</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>1326</v>
       </c>
@@ -9048,13 +9044,13 @@
       <c r="F117" t="s">
         <v>362</v>
       </c>
-      <c r="G117">
+      <c r="G117" s="8">
         <v>59</v>
       </c>
       <c r="H117">
         <v>8.3325999999999993</v>
       </c>
-      <c r="I117">
+      <c r="I117" s="8">
         <v>981</v>
       </c>
       <c r="J117">
@@ -9064,7 +9060,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>1544</v>
       </c>
@@ -9083,13 +9079,13 @@
       <c r="F118" t="s">
         <v>366</v>
       </c>
-      <c r="G118">
+      <c r="G118" s="8">
         <v>59</v>
       </c>
       <c r="H118">
         <v>8.4542000000000002</v>
       </c>
-      <c r="I118">
+      <c r="I118" s="8">
         <v>984</v>
       </c>
       <c r="J118">
@@ -9099,7 +9095,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>1327</v>
       </c>
@@ -9118,13 +9114,13 @@
       <c r="F119" t="s">
         <v>362</v>
       </c>
-      <c r="G119">
+      <c r="G119" s="8">
         <v>59</v>
       </c>
       <c r="H119">
         <v>8.6913999999999998</v>
       </c>
-      <c r="I119">
+      <c r="I119" s="8">
         <v>1010</v>
       </c>
       <c r="J119">
@@ -9134,7 +9130,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>1327</v>
       </c>
@@ -9153,20 +9149,20 @@
       <c r="F120" t="s">
         <v>362</v>
       </c>
-      <c r="G120">
+      <c r="G120" s="8">
         <v>59</v>
       </c>
       <c r="H120">
         <v>8.7509999999999994</v>
       </c>
-      <c r="I120">
+      <c r="I120" s="8">
         <v>1010</v>
       </c>
       <c r="J120">
         <v>148.10994400000001</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>373</v>
       </c>
@@ -9177,17 +9173,17 @@
         <v>373</v>
       </c>
       <c r="E121" s="5"/>
-      <c r="G121">
+      <c r="G121" s="8">
         <v>101</v>
       </c>
       <c r="H121">
         <v>8.7746999999999993</v>
       </c>
-      <c r="I121">
+      <c r="I121" s="8">
         <v>1024</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>1328</v>
       </c>
@@ -9206,13 +9202,13 @@
       <c r="F122" t="s">
         <v>377</v>
       </c>
-      <c r="G122">
+      <c r="G122" s="8">
         <v>59</v>
       </c>
       <c r="H122">
         <v>9.0002999999999993</v>
       </c>
-      <c r="I122">
+      <c r="I122" s="8">
         <v>1042</v>
       </c>
       <c r="J122">
@@ -9222,7 +9218,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>1329</v>
       </c>
@@ -9241,20 +9237,20 @@
       <c r="F123" t="s">
         <v>384</v>
       </c>
-      <c r="G123">
+      <c r="G123" s="8">
         <v>108</v>
       </c>
       <c r="H123">
         <v>9.0800999999999998</v>
       </c>
-      <c r="I123">
+      <c r="I123" s="8">
         <v>1036</v>
       </c>
       <c r="J123">
         <v>108.0575149</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>1330</v>
       </c>
@@ -9273,23 +9269,23 @@
       <c r="F124" t="s">
         <v>34</v>
       </c>
-      <c r="G124">
+      <c r="G124" s="8">
         <v>59</v>
       </c>
       <c r="H124">
         <v>9.8600999999999992</v>
       </c>
-      <c r="I124">
+      <c r="I124" s="8">
         <v>1064</v>
       </c>
       <c r="J124">
         <v>156.1514153</v>
       </c>
-      <c r="K124" s="8" t="s">
+      <c r="K124" t="s">
         <v>1602</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>1331</v>
       </c>
@@ -9308,20 +9304,20 @@
       <c r="F125" t="s">
         <v>384</v>
       </c>
-      <c r="G125">
+      <c r="G125" s="8">
         <v>107</v>
       </c>
       <c r="H125">
         <v>10.0021</v>
       </c>
-      <c r="I125">
+      <c r="I125" s="8">
         <v>1077</v>
       </c>
       <c r="J125">
         <v>108.0575149</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>1332</v>
       </c>
@@ -9340,20 +9336,20 @@
       <c r="F126" t="s">
         <v>391</v>
       </c>
-      <c r="G126">
+      <c r="G126" s="8">
         <v>139</v>
       </c>
       <c r="H126">
         <v>10.734400000000001</v>
       </c>
-      <c r="I126">
+      <c r="I126" s="8">
         <v>1105</v>
       </c>
       <c r="J126">
         <v>140.0028925</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>1333</v>
       </c>
@@ -9372,13 +9368,13 @@
       <c r="F127" t="s">
         <v>34</v>
       </c>
-      <c r="G127">
+      <c r="G127" s="8">
         <v>95</v>
       </c>
       <c r="H127">
         <v>11.757199999999999</v>
       </c>
-      <c r="I127">
+      <c r="I127" s="8">
         <v>1169</v>
       </c>
       <c r="J127">
@@ -9388,7 +9384,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>1334</v>
       </c>
@@ -9407,20 +9403,20 @@
       <c r="F128" t="s">
         <v>17</v>
       </c>
-      <c r="G128">
+      <c r="G128" s="8">
         <v>57</v>
       </c>
       <c r="H128">
         <v>12.0433</v>
       </c>
-      <c r="I128">
+      <c r="I128" s="8">
         <v>1186</v>
       </c>
       <c r="J128">
         <v>162.12559440000001</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>1335</v>
       </c>
@@ -9439,20 +9435,20 @@
       <c r="F129" t="s">
         <v>402</v>
       </c>
-      <c r="G129">
+      <c r="G129" s="8">
         <v>134</v>
       </c>
       <c r="H129">
         <v>12.0855</v>
       </c>
-      <c r="I129">
+      <c r="I129" s="8">
         <v>1188</v>
       </c>
       <c r="J129">
         <v>134.01902140000001</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>1336</v>
       </c>
@@ -9471,20 +9467,20 @@
       <c r="F130" t="s">
         <v>406</v>
       </c>
-      <c r="G130">
+      <c r="G130" s="8">
         <v>107</v>
       </c>
       <c r="H130">
         <v>12.501099999999999</v>
       </c>
-      <c r="I130">
+      <c r="I130" s="8">
         <v>1216</v>
       </c>
       <c r="J130">
         <v>142.0185425</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>1337</v>
       </c>
@@ -9503,13 +9499,13 @@
       <c r="F131" t="s">
         <v>410</v>
       </c>
-      <c r="G131">
+      <c r="G131" s="8">
         <v>59</v>
       </c>
       <c r="H131">
         <v>12.919700000000001</v>
       </c>
-      <c r="I131">
+      <c r="I131" s="8">
         <v>1238</v>
       </c>
       <c r="J131">
@@ -9522,7 +9518,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>1338</v>
       </c>
@@ -9541,20 +9537,20 @@
       <c r="F132" t="s">
         <v>414</v>
       </c>
-      <c r="G132">
+      <c r="G132" s="8">
         <v>148</v>
       </c>
       <c r="H132">
         <v>12.9655</v>
       </c>
-      <c r="I132">
+      <c r="I132" s="8">
         <v>1232</v>
       </c>
       <c r="J132">
         <v>148.08881500000001</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>1570</v>
       </c>
@@ -9570,20 +9566,20 @@
       <c r="F133" t="s">
         <v>417</v>
       </c>
-      <c r="G133">
+      <c r="G133" s="8">
         <v>101</v>
       </c>
       <c r="H133">
         <v>13.2393</v>
       </c>
-      <c r="I133">
+      <c r="I133" s="8">
         <v>1323</v>
       </c>
       <c r="J133">
         <v>218.15180899999999</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>1339</v>
       </c>
@@ -9602,20 +9598,20 @@
       <c r="F134" t="s">
         <v>421</v>
       </c>
-      <c r="G134">
+      <c r="G134" s="8">
         <v>131</v>
       </c>
       <c r="H134">
         <v>14.7599</v>
       </c>
-      <c r="I134">
+      <c r="I134" s="8">
         <v>1337</v>
       </c>
       <c r="J134">
         <v>146.07316489999999</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>1340</v>
       </c>
@@ -9634,13 +9630,13 @@
       <c r="F135" t="s">
         <v>425</v>
       </c>
-      <c r="G135">
+      <c r="G135" s="8">
         <v>109</v>
       </c>
       <c r="H135">
         <v>15.529299999999999</v>
       </c>
-      <c r="I135">
+      <c r="I135" s="8">
         <v>1407</v>
       </c>
       <c r="J135">
@@ -9653,7 +9649,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>427</v>
       </c>
@@ -9664,20 +9660,20 @@
         <v>427</v>
       </c>
       <c r="E136" s="5"/>
-      <c r="G136">
+      <c r="G136" s="8">
         <v>99</v>
       </c>
       <c r="H136">
         <v>16.904</v>
       </c>
-      <c r="I136">
+      <c r="I136" s="8">
         <v>1515</v>
       </c>
       <c r="K136" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>429</v>
       </c>
@@ -9688,17 +9684,17 @@
         <v>429</v>
       </c>
       <c r="E137" s="5"/>
-      <c r="G137">
+      <c r="G137" s="8">
         <v>85</v>
       </c>
       <c r="H137">
         <v>17.5093</v>
       </c>
-      <c r="I137">
+      <c r="I137" s="8">
         <v>1563</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>1341</v>
       </c>
@@ -9717,13 +9713,13 @@
       <c r="F138" t="s">
         <v>433</v>
       </c>
-      <c r="G138">
+      <c r="G138" s="8">
         <v>105</v>
       </c>
       <c r="H138">
         <v>18.392499999999998</v>
       </c>
-      <c r="I138">
+      <c r="I138" s="8">
         <v>1635</v>
       </c>
       <c r="J138">
@@ -9736,7 +9732,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>435</v>
       </c>
@@ -9747,17 +9743,17 @@
         <v>435</v>
       </c>
       <c r="E139" s="5"/>
-      <c r="G139">
+      <c r="G139" s="8">
         <v>173</v>
       </c>
       <c r="H139">
         <v>18.4633</v>
       </c>
-      <c r="I139">
+      <c r="I139" s="8">
         <v>1641</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>1342</v>
       </c>
@@ -9776,13 +9772,13 @@
       <c r="F140" t="s">
         <v>439</v>
       </c>
-      <c r="G140">
+      <c r="G140" s="8">
         <v>127</v>
       </c>
       <c r="H140">
         <v>18.4861</v>
       </c>
-      <c r="I140">
+      <c r="I140" s="8">
         <v>1689</v>
       </c>
       <c r="J140">
@@ -9792,7 +9788,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>1343</v>
       </c>
@@ -9811,13 +9807,13 @@
       <c r="F141" t="s">
         <v>444</v>
       </c>
-      <c r="G141">
+      <c r="G141" s="8">
         <v>83</v>
       </c>
       <c r="H141">
         <v>18.635300000000001</v>
       </c>
-      <c r="I141">
+      <c r="I141" s="8">
         <v>1649</v>
       </c>
       <c r="J141">
@@ -9827,7 +9823,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>1574</v>
       </c>
@@ -9843,20 +9839,20 @@
       <c r="F142" t="s">
         <v>448</v>
       </c>
-      <c r="G142">
+      <c r="G142" s="8">
         <v>57</v>
       </c>
       <c r="H142">
         <v>18.786200000000001</v>
       </c>
-      <c r="I142">
+      <c r="I142" s="8">
         <v>1675</v>
       </c>
       <c r="J142">
         <v>242.260965</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>1344</v>
       </c>
@@ -9875,13 +9871,13 @@
       <c r="F143" t="s">
         <v>452</v>
       </c>
-      <c r="G143">
+      <c r="G143" s="8">
         <v>129</v>
       </c>
       <c r="H143">
         <v>18.950500000000002</v>
       </c>
-      <c r="I143">
+      <c r="I143" s="8">
         <v>1695</v>
       </c>
       <c r="J143">
@@ -9891,7 +9887,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>1585</v>
       </c>
@@ -9907,13 +9903,13 @@
       <c r="F144" t="s">
         <v>456</v>
       </c>
-      <c r="G144">
+      <c r="G144" s="8">
         <v>163</v>
       </c>
       <c r="H144">
         <v>19.393899999999999</v>
       </c>
-      <c r="I144">
+      <c r="I144" s="8">
         <v>1774</v>
       </c>
       <c r="J144">
@@ -9923,7 +9919,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>1345</v>
       </c>
@@ -9942,13 +9938,13 @@
       <c r="F145" t="s">
         <v>459</v>
       </c>
-      <c r="G145">
+      <c r="G145" s="8">
         <v>89</v>
       </c>
       <c r="H145">
         <v>19.704699999999999</v>
       </c>
-      <c r="I145">
+      <c r="I145" s="8">
         <v>1744</v>
       </c>
       <c r="J145">
@@ -9958,7 +9954,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>1346</v>
       </c>
@@ -9977,13 +9973,13 @@
       <c r="F146" t="s">
         <v>464</v>
       </c>
-      <c r="G146">
+      <c r="G146" s="8">
         <v>194</v>
       </c>
       <c r="H146">
         <v>20.914100000000001</v>
       </c>
-      <c r="I146">
+      <c r="I146" s="8">
         <v>1835</v>
       </c>
       <c r="J146">
@@ -9993,7 +9989,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>1562</v>
       </c>
@@ -10012,13 +10008,13 @@
       <c r="F147" t="s">
         <v>468</v>
       </c>
-      <c r="G147">
+      <c r="G147" s="8">
         <v>158</v>
       </c>
       <c r="H147">
         <v>21.127400000000002</v>
       </c>
-      <c r="I147">
+      <c r="I147" s="8">
         <v>1898</v>
       </c>
       <c r="J147">
@@ -10028,7 +10024,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>1347</v>
       </c>
@@ -10047,20 +10043,20 @@
       <c r="F148" t="s">
         <v>448</v>
       </c>
-      <c r="G148">
+      <c r="G148" s="8">
         <v>83</v>
       </c>
       <c r="H148">
         <v>21.235600000000002</v>
       </c>
-      <c r="I148">
+      <c r="I148" s="8">
         <v>1880</v>
       </c>
       <c r="J148">
         <v>242.26096570000001</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>1348</v>
       </c>
@@ -10079,20 +10075,20 @@
       <c r="F149" t="s">
         <v>475</v>
       </c>
-      <c r="G149">
+      <c r="G149" s="8">
         <v>205</v>
       </c>
       <c r="H149">
         <v>21.660699999999999</v>
       </c>
-      <c r="I149">
+      <c r="I149" s="8">
         <v>1923</v>
       </c>
       <c r="J149">
         <v>276.17254459999998</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>476</v>
       </c>
@@ -10103,17 +10099,17 @@
         <v>476</v>
       </c>
       <c r="E150" s="5"/>
-      <c r="G150">
+      <c r="G150" s="8">
         <v>57</v>
       </c>
       <c r="H150">
         <v>21.8505</v>
       </c>
-      <c r="I150">
+      <c r="I150" s="8">
         <v>1948</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>1349</v>
       </c>
@@ -10132,20 +10128,20 @@
       <c r="F151" t="s">
         <v>479</v>
       </c>
-      <c r="G151">
+      <c r="G151" s="8">
         <v>73</v>
       </c>
       <c r="H151">
         <v>22.005199999999999</v>
       </c>
-      <c r="I151">
+      <c r="I151" s="8">
         <v>1968</v>
       </c>
       <c r="J151">
         <v>256.24023030000001</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>1350</v>
       </c>
@@ -10164,13 +10160,13 @@
       <c r="F152" t="s">
         <v>483</v>
       </c>
-      <c r="G152">
+      <c r="G152" s="8">
         <v>71</v>
       </c>
       <c r="H152">
         <v>22.371500000000001</v>
       </c>
-      <c r="I152">
+      <c r="I152" s="8">
         <v>2000</v>
       </c>
       <c r="J152">
@@ -10180,7 +10176,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>1594</v>
       </c>
@@ -10199,20 +10195,20 @@
       <c r="F153" t="s">
         <v>487</v>
       </c>
-      <c r="G153">
+      <c r="G153" s="8">
         <v>83</v>
       </c>
       <c r="H153">
         <v>22.471</v>
       </c>
-      <c r="I153">
+      <c r="I153" s="8">
         <v>1329</v>
       </c>
       <c r="J153">
         <v>194.10718199999999</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>1590</v>
       </c>
@@ -10231,13 +10227,13 @@
       <c r="F154" t="s">
         <v>491</v>
       </c>
-      <c r="G154">
+      <c r="G154" s="8">
         <v>233</v>
       </c>
       <c r="H154">
         <v>22.801300000000001</v>
       </c>
-      <c r="I154">
+      <c r="I154" s="8">
         <v>2095</v>
       </c>
       <c r="J154">
@@ -10247,7 +10243,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>492</v>
       </c>
@@ -10258,17 +10254,17 @@
         <v>492</v>
       </c>
       <c r="E155" s="5"/>
-      <c r="G155">
+      <c r="G155" s="8">
         <v>111</v>
       </c>
       <c r="H155">
         <v>23.319199999999999</v>
       </c>
-      <c r="I155">
+      <c r="I155" s="8">
         <v>2097</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>1351</v>
       </c>
@@ -10287,13 +10283,13 @@
       <c r="F156" t="s">
         <v>496</v>
       </c>
-      <c r="G156">
+      <c r="G156" s="8">
         <v>71</v>
       </c>
       <c r="H156">
         <v>23.366099999999999</v>
       </c>
-      <c r="I156">
+      <c r="I156" s="8">
         <v>2100</v>
       </c>
       <c r="J156">
@@ -10303,7 +10299,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>1352</v>
       </c>
@@ -10322,20 +10318,20 @@
       <c r="F157" t="s">
         <v>499</v>
       </c>
-      <c r="G157">
+      <c r="G157" s="8">
         <v>73</v>
       </c>
       <c r="H157">
         <v>23.974900000000002</v>
       </c>
-      <c r="I157">
+      <c r="I157" s="8">
         <v>2172</v>
       </c>
       <c r="J157">
         <v>284.27153040000002</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>1353</v>
       </c>
@@ -10354,13 +10350,13 @@
       <c r="F158" t="s">
         <v>502</v>
       </c>
-      <c r="G158">
+      <c r="G158" s="8">
         <v>71</v>
       </c>
       <c r="H158">
         <v>24.314900000000002</v>
       </c>
-      <c r="I158">
+      <c r="I158" s="8">
         <v>2200</v>
       </c>
       <c r="J158">
@@ -10370,7 +10366,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
         <v>1354</v>
       </c>
@@ -10389,13 +10385,13 @@
       <c r="F159" t="s">
         <v>506</v>
       </c>
-      <c r="G159">
+      <c r="G159" s="8">
         <v>85</v>
       </c>
       <c r="H159">
         <v>24.519300000000001</v>
       </c>
-      <c r="I159">
+      <c r="I159" s="8">
         <v>2281</v>
       </c>
       <c r="J159">
@@ -10405,7 +10401,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
         <v>1559</v>
       </c>
@@ -10424,20 +10420,20 @@
       <c r="F160" t="s">
         <v>509</v>
       </c>
-      <c r="G160">
+      <c r="G160" s="8">
         <v>59</v>
       </c>
       <c r="H160">
         <v>25.320399999999999</v>
       </c>
-      <c r="I160">
+      <c r="I160" s="8">
         <v>2342</v>
       </c>
       <c r="J160">
         <v>340.20971900000001</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
         <v>1355</v>
       </c>
@@ -10456,13 +10452,13 @@
       <c r="F161" t="s">
         <v>513</v>
       </c>
-      <c r="G161">
+      <c r="G161" s="8">
         <v>57</v>
       </c>
       <c r="H161">
         <v>26.877199999999998</v>
       </c>
-      <c r="I161">
+      <c r="I161" s="8">
         <v>2556</v>
       </c>
       <c r="J161">
@@ -10472,7 +10468,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
         <v>1356</v>
       </c>
@@ -10491,20 +10487,20 @@
       <c r="F162" t="s">
         <v>517</v>
       </c>
-      <c r="G162">
+      <c r="G162" s="8">
         <v>89</v>
       </c>
       <c r="H162">
         <v>27.6525</v>
       </c>
-      <c r="I162">
+      <c r="I162" s="8">
         <v>2615</v>
       </c>
       <c r="J162">
         <v>384.23593269999998</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>1587</v>
       </c>
@@ -10520,13 +10516,13 @@
       <c r="F163" t="s">
         <v>218</v>
       </c>
-      <c r="G163">
+      <c r="G163" s="8">
         <v>149</v>
       </c>
       <c r="H163">
         <v>28.954699999999999</v>
       </c>
-      <c r="I163">
+      <c r="I163" s="8">
         <v>2704</v>
       </c>
       <c r="J163">
@@ -10536,7 +10532,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>1357</v>
       </c>
@@ -10555,13 +10551,13 @@
       <c r="F164" t="s">
         <v>523</v>
       </c>
-      <c r="G164">
+      <c r="G164" s="8">
         <v>57</v>
       </c>
       <c r="H164">
         <v>28.999600000000001</v>
       </c>
-      <c r="I164">
+      <c r="I164" s="8">
         <v>2830</v>
       </c>
       <c r="J164">
@@ -10571,7 +10567,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>1358</v>
       </c>
@@ -10590,13 +10586,13 @@
       <c r="F165" t="s">
         <v>527</v>
       </c>
-      <c r="G165">
+      <c r="G165" s="8">
         <v>69</v>
       </c>
       <c r="H165">
         <v>29.559200000000001</v>
       </c>
-      <c r="I165">
+      <c r="I165" s="8">
         <v>2832</v>
       </c>
       <c r="J165">
@@ -10606,7 +10602,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
         <v>1359</v>
       </c>
@@ -10625,20 +10621,20 @@
       <c r="F166" t="s">
         <v>66</v>
       </c>
-      <c r="G166">
+      <c r="G166" s="8">
         <v>191</v>
       </c>
       <c r="H166">
         <v>18.855899999999998</v>
       </c>
-      <c r="I166">
+      <c r="I166" s="8">
         <v>1583</v>
       </c>
       <c r="J166">
         <v>206.16706529999999</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
         <v>1360</v>
       </c>
@@ -10657,20 +10653,20 @@
       <c r="F167" t="s">
         <v>323</v>
       </c>
-      <c r="G167">
+      <c r="G167" s="8">
         <v>92</v>
       </c>
       <c r="H167">
         <v>11.5014</v>
       </c>
-      <c r="I167">
+      <c r="I167" s="8">
         <v>1125</v>
       </c>
       <c r="J167">
         <v>150.1044651</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>1527</v>
       </c>
@@ -10689,20 +10685,20 @@
       <c r="F168" t="s">
         <v>538</v>
       </c>
-      <c r="G168">
+      <c r="G168" s="8">
         <v>69</v>
       </c>
       <c r="H168">
         <v>14.9968</v>
       </c>
-      <c r="I168">
+      <c r="I168" s="8">
         <v>1378</v>
       </c>
       <c r="J168">
         <v>192.1514153</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>1510</v>
       </c>
@@ -10721,20 +10717,20 @@
       <c r="F169" t="s">
         <v>66</v>
       </c>
-      <c r="G169">
+      <c r="G169" s="8">
         <v>135</v>
       </c>
       <c r="H169">
         <v>16.466699999999999</v>
       </c>
-      <c r="I169">
+      <c r="I169" s="8">
         <v>1470</v>
       </c>
       <c r="J169">
         <v>206.16706529999999</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>1361</v>
       </c>
@@ -10753,13 +10749,13 @@
       <c r="F170" t="s">
         <v>545</v>
       </c>
-      <c r="G170">
+      <c r="G170" s="8">
         <v>256</v>
       </c>
       <c r="H170">
         <v>27.1021</v>
       </c>
-      <c r="I170">
+      <c r="I170" s="8">
         <v>2446</v>
       </c>
       <c r="J170">
@@ -10769,7 +10765,7 @@
         <v>94.6</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
         <v>546</v>
       </c>
@@ -10780,17 +10776,17 @@
         <v>546</v>
       </c>
       <c r="E171" s="5"/>
-      <c r="G171">
+      <c r="G171" s="8">
         <v>86</v>
       </c>
       <c r="H171">
         <v>4.1256000000000004</v>
       </c>
-      <c r="I171">
+      <c r="I171" s="8">
         <v>867</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
         <v>1541</v>
       </c>
@@ -10809,13 +10805,13 @@
       <c r="F172" t="s">
         <v>550</v>
       </c>
-      <c r="G172">
+      <c r="G172" s="8">
         <v>241</v>
       </c>
       <c r="H172">
         <v>25.4251</v>
       </c>
-      <c r="I172">
+      <c r="I172" s="8">
         <v>2313</v>
       </c>
       <c r="J172">
@@ -10825,7 +10821,7 @@
         <v>79.400000000000006</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
         <v>1555</v>
       </c>
@@ -10844,13 +10840,13 @@
       <c r="F173" t="s">
         <v>554</v>
       </c>
-      <c r="G173">
+      <c r="G173" s="8">
         <v>195</v>
       </c>
       <c r="H173">
         <v>25.332100000000001</v>
       </c>
-      <c r="I173">
+      <c r="I173" s="8">
         <v>2323</v>
       </c>
       <c r="J173">
@@ -10860,7 +10856,7 @@
         <v>75.8</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
         <v>555</v>
       </c>
@@ -10874,17 +10870,17 @@
       <c r="F174" t="s">
         <v>556</v>
       </c>
-      <c r="G174">
+      <c r="G174" s="8">
         <v>253</v>
       </c>
       <c r="H174">
         <v>20.120200000000001</v>
       </c>
-      <c r="I174">
+      <c r="I174" s="8">
         <v>1785</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
         <v>1529</v>
       </c>
@@ -10903,13 +10899,13 @@
       <c r="F175" t="s">
         <v>560</v>
       </c>
-      <c r="G175">
+      <c r="G175" s="8">
         <v>197</v>
       </c>
       <c r="H175">
         <v>20.0349</v>
       </c>
-      <c r="I175">
+      <c r="I175" s="8">
         <v>1827</v>
       </c>
       <c r="J175">
@@ -10919,7 +10915,7 @@
         <v>64.3</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
         <v>561</v>
       </c>
@@ -10933,17 +10929,17 @@
       <c r="F176" t="s">
         <v>562</v>
       </c>
-      <c r="G176">
+      <c r="G176" s="8">
         <v>253</v>
       </c>
       <c r="H176">
         <v>27.819800000000001</v>
       </c>
-      <c r="I176">
+      <c r="I176" s="8">
         <v>2607</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
         <v>563</v>
       </c>
@@ -10954,17 +10950,17 @@
         <v>563</v>
       </c>
       <c r="E177" s="5"/>
-      <c r="G177">
+      <c r="G177" s="8">
         <v>78</v>
       </c>
       <c r="H177">
         <v>5.8358999999999996</v>
       </c>
-      <c r="I177">
+      <c r="I177" s="8">
         <v>914</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
         <v>1511</v>
       </c>
@@ -10983,13 +10979,13 @@
       <c r="F178" t="s">
         <v>567</v>
       </c>
-      <c r="G178">
+      <c r="G178" s="8">
         <v>119</v>
       </c>
       <c r="H178">
         <v>18.6358</v>
       </c>
-      <c r="I178">
+      <c r="I178" s="8">
         <v>1694</v>
       </c>
       <c r="J178">
@@ -10999,7 +10995,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
         <v>1362</v>
       </c>
@@ -11018,13 +11014,13 @@
       <c r="F179" t="s">
         <v>571</v>
       </c>
-      <c r="G179">
+      <c r="G179" s="8">
         <v>185</v>
       </c>
       <c r="H179">
         <v>24.9435</v>
       </c>
-      <c r="I179">
+      <c r="I179" s="8">
         <v>2250</v>
       </c>
       <c r="J179">
@@ -11034,7 +11030,7 @@
         <v>86.9</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
         <v>1503</v>
       </c>
@@ -11053,13 +11049,13 @@
       <c r="F180" t="s">
         <v>575</v>
       </c>
-      <c r="G180">
+      <c r="G180" s="8">
         <v>281</v>
       </c>
       <c r="H180">
         <v>16.620999999999999</v>
       </c>
-      <c r="I180">
+      <c r="I180" s="8">
         <v>1502</v>
       </c>
       <c r="J180">
@@ -11072,7 +11068,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
         <v>576</v>
       </c>
@@ -11083,20 +11079,20 @@
         <v>576</v>
       </c>
       <c r="E181" s="5"/>
-      <c r="G181">
+      <c r="G181" s="8">
         <v>327</v>
       </c>
       <c r="H181">
         <v>21.255500000000001</v>
       </c>
-      <c r="I181">
+      <c r="I181" s="8">
         <v>1891</v>
       </c>
       <c r="K181" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
         <v>577</v>
       </c>
@@ -11107,20 +11103,20 @@
         <v>577</v>
       </c>
       <c r="E182" s="5"/>
-      <c r="G182">
+      <c r="G182" s="8">
         <v>281</v>
       </c>
       <c r="H182">
         <v>8.4111999999999991</v>
       </c>
-      <c r="I182">
+      <c r="I182" s="8">
         <v>1009</v>
       </c>
       <c r="K182" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
         <v>1363</v>
       </c>
@@ -11139,20 +11135,20 @@
       <c r="F183" t="s">
         <v>580</v>
       </c>
-      <c r="G183">
+      <c r="G183" s="8">
         <v>125</v>
       </c>
       <c r="H183">
         <v>26.2333</v>
       </c>
-      <c r="I183">
+      <c r="I183" s="8">
         <v>2363</v>
       </c>
       <c r="J183">
         <v>398.24334060000001</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
         <v>1364</v>
       </c>
@@ -11171,20 +11167,20 @@
       <c r="F184" t="s">
         <v>584</v>
       </c>
-      <c r="G184">
+      <c r="G184" s="8">
         <v>123</v>
       </c>
       <c r="H184">
         <v>10.6677</v>
       </c>
-      <c r="I184">
+      <c r="I184" s="8">
         <v>931</v>
       </c>
       <c r="J184">
         <v>122.9909481</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
         <v>1365</v>
       </c>
@@ -11203,20 +11199,20 @@
       <c r="F185" t="s">
         <v>588</v>
       </c>
-      <c r="G185">
+      <c r="G185" s="8">
         <v>151</v>
       </c>
       <c r="H185">
         <v>26.883900000000001</v>
       </c>
-      <c r="I185">
+      <c r="I185" s="8">
         <v>2422</v>
       </c>
       <c r="J185">
         <v>274.0841236</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
         <v>1533</v>
       </c>
@@ -11235,20 +11231,20 @@
       <c r="F186" t="s">
         <v>592</v>
       </c>
-      <c r="G186">
+      <c r="G186" s="8">
         <v>88</v>
       </c>
       <c r="H186">
         <v>13.4095</v>
       </c>
-      <c r="I186">
+      <c r="I186" s="8">
         <v>1082</v>
       </c>
       <c r="J186">
         <v>135.01764159999999</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
         <v>1366</v>
       </c>
@@ -11267,13 +11263,13 @@
       <c r="F187" t="s">
         <v>596</v>
       </c>
-      <c r="G187">
+      <c r="G187" s="8">
         <v>91</v>
       </c>
       <c r="H187">
         <v>26.706199999999999</v>
       </c>
-      <c r="I187">
+      <c r="I187" s="8">
         <v>2471</v>
       </c>
       <c r="J187">
@@ -11283,7 +11279,7 @@
         <v>90.3</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
         <v>597</v>
       </c>
@@ -11294,20 +11290,20 @@
         <v>597</v>
       </c>
       <c r="E188" s="5"/>
-      <c r="G188">
+      <c r="G188" s="8">
         <v>57</v>
       </c>
       <c r="H188">
         <v>22.386600000000001</v>
       </c>
-      <c r="I188">
+      <c r="I188" s="8">
         <v>2000</v>
       </c>
       <c r="K188" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
         <v>1518</v>
       </c>
@@ -11326,13 +11322,13 @@
       <c r="F189" t="s">
         <v>601</v>
       </c>
-      <c r="G189">
+      <c r="G189" s="8">
         <v>71</v>
       </c>
       <c r="H189">
         <v>10.9262</v>
       </c>
-      <c r="I189">
+      <c r="I189" s="8">
         <v>1134</v>
       </c>
       <c r="J189">
@@ -11342,7 +11338,7 @@
         <v>89.3</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
         <v>1517</v>
       </c>
@@ -11361,13 +11357,13 @@
       <c r="F190" t="s">
         <v>13</v>
       </c>
-      <c r="G190">
+      <c r="G190" s="8">
         <v>57</v>
       </c>
       <c r="H190">
         <v>10.4086</v>
       </c>
-      <c r="I190">
+      <c r="I190" s="8">
         <v>1108</v>
       </c>
       <c r="J190">
@@ -11377,7 +11373,7 @@
         <v>86.9</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
         <v>1538</v>
       </c>
@@ -11396,13 +11392,13 @@
       <c r="F191" t="s">
         <v>606</v>
       </c>
-      <c r="G191">
+      <c r="G191" s="8">
         <v>69</v>
       </c>
       <c r="H191">
         <v>13.443300000000001</v>
       </c>
-      <c r="I191">
+      <c r="I191" s="8">
         <v>1280</v>
       </c>
       <c r="J191">
@@ -11412,7 +11408,7 @@
         <v>85.3</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
         <v>1367</v>
       </c>
@@ -11431,13 +11427,13 @@
       <c r="F192" t="s">
         <v>609</v>
       </c>
-      <c r="G192">
+      <c r="G192" s="8">
         <v>57</v>
       </c>
       <c r="H192">
         <v>12.578099999999999</v>
       </c>
-      <c r="I192">
+      <c r="I192" s="8">
         <v>1224</v>
       </c>
       <c r="J192">
@@ -11447,7 +11443,7 @@
         <v>83.7</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
         <v>1569</v>
       </c>
@@ -11466,13 +11462,13 @@
       <c r="F193" t="s">
         <v>613</v>
       </c>
-      <c r="G193">
+      <c r="G193" s="8">
         <v>122</v>
       </c>
       <c r="H193">
         <v>26.957100000000001</v>
       </c>
-      <c r="I193">
+      <c r="I193" s="8">
         <v>2495</v>
       </c>
       <c r="J193">
@@ -11482,7 +11478,7 @@
         <v>84.7</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
         <v>1351</v>
       </c>
@@ -11501,13 +11497,13 @@
       <c r="F194" t="s">
         <v>496</v>
       </c>
-      <c r="G194">
+      <c r="G194" s="8">
         <v>57</v>
       </c>
       <c r="H194">
         <v>23.3813</v>
       </c>
-      <c r="I194">
+      <c r="I194" s="8">
         <v>2100</v>
       </c>
       <c r="J194">
@@ -11520,7 +11516,7 @@
         <v>88.7</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
         <v>1512</v>
       </c>
@@ -11539,13 +11535,13 @@
       <c r="F195" t="s">
         <v>617</v>
       </c>
-      <c r="G195">
+      <c r="G195" s="8">
         <v>256</v>
       </c>
       <c r="H195">
         <v>22.650300000000001</v>
       </c>
-      <c r="I195">
+      <c r="I195" s="8">
         <v>2023</v>
       </c>
       <c r="J195">
@@ -11555,7 +11551,7 @@
         <v>77.7</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
         <v>1549</v>
       </c>
@@ -11574,13 +11570,13 @@
       <c r="F196" t="s">
         <v>620</v>
       </c>
-      <c r="G196">
+      <c r="G196" s="8">
         <v>57</v>
       </c>
       <c r="H196">
         <v>21.349799999999998</v>
       </c>
-      <c r="I196">
+      <c r="I196" s="8">
         <v>1900</v>
       </c>
       <c r="J196">
@@ -11593,7 +11589,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
         <v>1368</v>
       </c>
@@ -11612,13 +11608,13 @@
       <c r="F197" t="s">
         <v>624</v>
       </c>
-      <c r="G197">
+      <c r="G197" s="8">
         <v>87</v>
       </c>
       <c r="H197">
         <v>7.1616</v>
       </c>
-      <c r="I197">
+      <c r="I197" s="8">
         <v>945</v>
       </c>
       <c r="J197">
@@ -11628,7 +11624,7 @@
         <v>96.4</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
         <v>1369</v>
       </c>
@@ -11647,13 +11643,13 @@
       <c r="F198" t="s">
         <v>628</v>
       </c>
-      <c r="G198">
+      <c r="G198" s="8">
         <v>57</v>
       </c>
       <c r="H198">
         <v>22.403500000000001</v>
       </c>
-      <c r="I198">
+      <c r="I198" s="8">
         <v>2006</v>
       </c>
       <c r="J198">
@@ -11663,7 +11659,7 @@
         <v>94.7</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
         <v>1370</v>
       </c>
@@ -11682,13 +11678,13 @@
       <c r="F199" t="s">
         <v>632</v>
       </c>
-      <c r="G199">
+      <c r="G199" s="8">
         <v>70</v>
       </c>
       <c r="H199">
         <v>13.4946</v>
       </c>
-      <c r="I199">
+      <c r="I199" s="8">
         <v>1273</v>
       </c>
       <c r="J199">
@@ -11698,7 +11694,7 @@
         <v>98.4</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
         <v>1371</v>
       </c>
@@ -11717,13 +11713,13 @@
       <c r="F200" t="s">
         <v>377</v>
       </c>
-      <c r="G200">
+      <c r="G200" s="8">
         <v>72</v>
       </c>
       <c r="H200">
         <v>8.5480999999999998</v>
       </c>
-      <c r="I200">
+      <c r="I200" s="8">
         <v>1007</v>
       </c>
       <c r="J200">
@@ -11733,7 +11729,7 @@
         <v>95.4</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
         <v>1556</v>
       </c>
@@ -11752,13 +11748,13 @@
       <c r="F201" t="s">
         <v>639</v>
       </c>
-      <c r="G201">
+      <c r="G201" s="8">
         <v>69</v>
       </c>
       <c r="H201">
         <v>15.9011</v>
       </c>
-      <c r="I201">
+      <c r="I201" s="8">
         <v>1492</v>
       </c>
       <c r="J201">
@@ -11768,7 +11764,7 @@
         <v>86.4</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
         <v>1372</v>
       </c>
@@ -11787,13 +11783,13 @@
       <c r="F202" t="s">
         <v>643</v>
       </c>
-      <c r="G202">
+      <c r="G202" s="8">
         <v>56</v>
       </c>
       <c r="H202">
         <v>9.9069000000000003</v>
       </c>
-      <c r="I202">
+      <c r="I202" s="8">
         <v>1071</v>
       </c>
       <c r="J202">
@@ -11803,7 +11799,7 @@
         <v>93.6</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
         <v>1581</v>
       </c>
@@ -11819,13 +11815,13 @@
       <c r="F203" t="s">
         <v>646</v>
       </c>
-      <c r="G203">
+      <c r="G203" s="8">
         <v>57</v>
       </c>
       <c r="H203">
         <v>16.850100000000001</v>
       </c>
-      <c r="I203">
+      <c r="I203" s="8">
         <v>1572</v>
       </c>
       <c r="J203">
@@ -11835,7 +11831,7 @@
         <v>87.7</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
         <v>1373</v>
       </c>
@@ -11854,13 +11850,13 @@
       <c r="F204" t="s">
         <v>601</v>
       </c>
-      <c r="G204">
+      <c r="G204" s="8">
         <v>71</v>
       </c>
       <c r="H204">
         <v>11.6076</v>
       </c>
-      <c r="I204">
+      <c r="I204" s="8">
         <v>1164</v>
       </c>
       <c r="J204">
@@ -11870,7 +11866,7 @@
         <v>86.3</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
         <v>1374</v>
       </c>
@@ -11889,13 +11885,13 @@
       <c r="F205" t="s">
         <v>651</v>
       </c>
-      <c r="G205">
+      <c r="G205" s="8">
         <v>105</v>
       </c>
       <c r="H205">
         <v>14.494</v>
       </c>
-      <c r="I205">
+      <c r="I205" s="8">
         <v>1344</v>
       </c>
       <c r="J205">
@@ -11905,7 +11901,7 @@
         <v>93.8</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
         <v>1496</v>
       </c>
@@ -11924,13 +11920,13 @@
       <c r="F206" t="s">
         <v>601</v>
       </c>
-      <c r="G206">
+      <c r="G206" s="8">
         <v>71</v>
       </c>
       <c r="H206">
         <v>11.722099999999999</v>
       </c>
-      <c r="I206">
+      <c r="I206" s="8">
         <v>1170</v>
       </c>
       <c r="J206">
@@ -11940,7 +11936,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
         <v>1545</v>
       </c>
@@ -11959,13 +11955,13 @@
       <c r="F207" t="s">
         <v>656</v>
       </c>
-      <c r="G207">
+      <c r="G207" s="8">
         <v>89</v>
       </c>
       <c r="H207">
         <v>25.349399999999999</v>
       </c>
-      <c r="I207">
+      <c r="I207" s="8">
         <v>2364</v>
       </c>
       <c r="J207">
@@ -11975,7 +11971,7 @@
         <v>86.2</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
         <v>1571</v>
       </c>
@@ -11994,13 +11990,13 @@
       <c r="F208" t="s">
         <v>658</v>
       </c>
-      <c r="G208">
+      <c r="G208" s="8">
         <v>73</v>
       </c>
       <c r="H208">
         <v>11.3589</v>
       </c>
-      <c r="I208">
+      <c r="I208" s="8">
         <v>1171</v>
       </c>
       <c r="J208">
@@ -12013,7 +12009,7 @@
         <v>86.3</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
         <v>1375</v>
       </c>
@@ -12032,13 +12028,13 @@
       <c r="F209" t="s">
         <v>662</v>
       </c>
-      <c r="G209">
+      <c r="G209" s="8">
         <v>141</v>
       </c>
       <c r="H209">
         <v>13.9832</v>
       </c>
-      <c r="I209">
+      <c r="I209" s="8">
         <v>1318</v>
       </c>
       <c r="J209">
@@ -12048,7 +12044,7 @@
         <v>86.3</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
         <v>1376</v>
       </c>
@@ -12067,13 +12063,13 @@
       <c r="F210" t="s">
         <v>666</v>
       </c>
-      <c r="G210">
+      <c r="G210" s="8">
         <v>89</v>
       </c>
       <c r="H210">
         <v>16.249600000000001</v>
       </c>
-      <c r="I210">
+      <c r="I210" s="8">
         <v>1470</v>
       </c>
       <c r="J210">
@@ -12083,7 +12079,7 @@
         <v>95.4</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
         <v>1377</v>
       </c>
@@ -12102,13 +12098,13 @@
       <c r="F211" t="s">
         <v>670</v>
       </c>
-      <c r="G211">
+      <c r="G211" s="8">
         <v>142</v>
       </c>
       <c r="H211">
         <v>12.199</v>
       </c>
-      <c r="I211">
+      <c r="I211" s="8">
         <v>1169</v>
       </c>
       <c r="J211">
@@ -12118,7 +12114,7 @@
         <v>93.7</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
         <v>1378</v>
       </c>
@@ -12137,13 +12133,13 @@
       <c r="F212" t="s">
         <v>674</v>
       </c>
-      <c r="G212">
+      <c r="G212" s="8">
         <v>57</v>
       </c>
       <c r="H212">
         <v>19.355399999999999</v>
       </c>
-      <c r="I212">
+      <c r="I212" s="8">
         <v>1731</v>
       </c>
       <c r="J212">
@@ -12153,7 +12149,7 @@
         <v>92.9</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
         <v>1379</v>
       </c>
@@ -12172,13 +12168,13 @@
       <c r="F213" t="s">
         <v>678</v>
       </c>
-      <c r="G213">
+      <c r="G213" s="8">
         <v>58</v>
       </c>
       <c r="H213">
         <v>6.7535999999999996</v>
       </c>
-      <c r="I213">
+      <c r="I213" s="8">
         <v>932</v>
       </c>
       <c r="J213">
@@ -12188,7 +12184,7 @@
         <v>85.2</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
         <v>1380</v>
       </c>
@@ -12207,13 +12203,13 @@
       <c r="F214" t="s">
         <v>682</v>
       </c>
-      <c r="G214">
+      <c r="G214" s="8">
         <v>94</v>
       </c>
       <c r="H214">
         <v>12.614699999999999</v>
       </c>
-      <c r="I214">
+      <c r="I214" s="8">
         <v>1225</v>
       </c>
       <c r="J214">
@@ -12223,7 +12219,7 @@
         <v>93.8</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
         <v>1381</v>
       </c>
@@ -12242,13 +12238,13 @@
       <c r="F215" t="s">
         <v>686</v>
       </c>
-      <c r="G215">
+      <c r="G215" s="8">
         <v>57</v>
       </c>
       <c r="H215">
         <v>21.640699999999999</v>
       </c>
-      <c r="I215">
+      <c r="I215" s="8">
         <v>1930</v>
       </c>
       <c r="J215">
@@ -12258,7 +12254,7 @@
         <v>86.2</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" s="7" t="s">
         <v>1522</v>
       </c>
@@ -12277,13 +12273,13 @@
       <c r="F216" t="s">
         <v>690</v>
       </c>
-      <c r="G216">
+      <c r="G216" s="8">
         <v>209</v>
       </c>
       <c r="H216">
         <v>23.839200000000002</v>
       </c>
-      <c r="I216">
+      <c r="I216" s="8">
         <v>2178</v>
       </c>
       <c r="J216">
@@ -12293,7 +12289,7 @@
         <v>80.2</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
         <v>1382</v>
       </c>
@@ -12312,13 +12308,13 @@
       <c r="F217" t="s">
         <v>693</v>
       </c>
-      <c r="G217">
+      <c r="G217" s="8">
         <v>205</v>
       </c>
       <c r="H217">
         <v>22.0808</v>
       </c>
-      <c r="I217">
+      <c r="I217" s="8">
         <v>1912</v>
       </c>
       <c r="J217">
@@ -12328,7 +12324,7 @@
         <v>86.9</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
         <v>1528</v>
       </c>
@@ -12347,13 +12343,13 @@
       <c r="F218" t="s">
         <v>697</v>
       </c>
-      <c r="G218">
+      <c r="G218" s="8">
         <v>193</v>
       </c>
       <c r="H218">
         <v>20.870100000000001</v>
       </c>
-      <c r="I218">
+      <c r="I218" s="8">
         <v>1825</v>
       </c>
       <c r="J218">
@@ -12363,7 +12359,7 @@
         <v>85.2</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
         <v>1383</v>
       </c>
@@ -12382,13 +12378,13 @@
       <c r="F219" t="s">
         <v>700</v>
       </c>
-      <c r="G219">
+      <c r="G219" s="8">
         <v>93</v>
       </c>
       <c r="H219">
         <v>7.7706999999999997</v>
       </c>
-      <c r="I219">
+      <c r="I219" s="8">
         <v>977</v>
       </c>
       <c r="J219">
@@ -12398,7 +12394,7 @@
         <v>89.6</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
         <v>1384</v>
       </c>
@@ -12417,13 +12413,13 @@
       <c r="F220" t="s">
         <v>704</v>
       </c>
-      <c r="G220">
+      <c r="G220" s="8">
         <v>92</v>
       </c>
       <c r="H220">
         <v>18.661799999999999</v>
       </c>
-      <c r="I220">
+      <c r="I220" s="8">
         <v>1633</v>
       </c>
       <c r="J220">
@@ -12433,7 +12429,7 @@
         <v>82.3</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
         <v>1385</v>
       </c>
@@ -12452,13 +12448,13 @@
       <c r="F221" t="s">
         <v>708</v>
       </c>
-      <c r="G221">
+      <c r="G221" s="8">
         <v>213</v>
       </c>
       <c r="H221">
         <v>24.258099999999999</v>
       </c>
-      <c r="I221">
+      <c r="I221" s="8">
         <v>2173</v>
       </c>
       <c r="J221">
@@ -12468,7 +12464,7 @@
         <v>92.2</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
         <v>1557</v>
       </c>
@@ -12487,13 +12483,13 @@
       <c r="F222" t="s">
         <v>214</v>
       </c>
-      <c r="G222">
+      <c r="G222" s="8">
         <v>121</v>
       </c>
       <c r="H222">
         <v>12.2797</v>
       </c>
-      <c r="I222">
+      <c r="I222" s="8">
         <v>1199</v>
       </c>
       <c r="J222">
@@ -12503,7 +12499,7 @@
         <v>96.7</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
         <v>1386</v>
       </c>
@@ -12522,13 +12518,13 @@
       <c r="F223" t="s">
         <v>715</v>
       </c>
-      <c r="G223">
+      <c r="G223" s="8">
         <v>117</v>
       </c>
       <c r="H223">
         <v>13.789300000000001</v>
       </c>
-      <c r="I223">
+      <c r="I223" s="8">
         <v>1295</v>
       </c>
       <c r="J223">
@@ -12538,7 +12534,7 @@
         <v>91.6</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
         <v>1500</v>
       </c>
@@ -12557,13 +12553,13 @@
       <c r="F224" t="s">
         <v>719</v>
       </c>
-      <c r="G224">
+      <c r="G224" s="8">
         <v>129</v>
       </c>
       <c r="H224">
         <v>26.145499999999998</v>
       </c>
-      <c r="I224">
+      <c r="I224" s="8">
         <v>2398</v>
       </c>
       <c r="J224">
@@ -12573,7 +12569,7 @@
         <v>86.4</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
         <v>1532</v>
       </c>
@@ -12592,13 +12588,13 @@
       <c r="F225" t="s">
         <v>722</v>
       </c>
-      <c r="G225">
+      <c r="G225" s="8">
         <v>220</v>
       </c>
       <c r="H225">
         <v>24.135999999999999</v>
       </c>
-      <c r="I225">
+      <c r="I225" s="8">
         <v>2142</v>
       </c>
       <c r="J225">
@@ -12608,7 +12604,7 @@
         <v>81.099999999999994</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
         <v>1521</v>
       </c>
@@ -12627,13 +12623,13 @@
       <c r="F226" t="s">
         <v>620</v>
       </c>
-      <c r="G226">
+      <c r="G226" s="8">
         <v>71</v>
       </c>
       <c r="H226">
         <v>19.189299999999999</v>
       </c>
-      <c r="I226">
+      <c r="I226" s="8">
         <v>1703</v>
       </c>
       <c r="J226">
@@ -12643,7 +12639,7 @@
         <v>92.4</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
         <v>1548</v>
       </c>
@@ -12662,13 +12658,13 @@
       <c r="F227" t="s">
         <v>728</v>
       </c>
-      <c r="G227">
+      <c r="G227" s="8">
         <v>71</v>
       </c>
       <c r="H227">
         <v>19.117000000000001</v>
       </c>
-      <c r="I227">
+      <c r="I227" s="8">
         <v>1700</v>
       </c>
       <c r="J227">
@@ -12681,7 +12677,7 @@
         <v>91.8</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
         <v>1531</v>
       </c>
@@ -12700,13 +12696,13 @@
       <c r="F228" t="s">
         <v>732</v>
       </c>
-      <c r="G228">
+      <c r="G228" s="8">
         <v>206</v>
       </c>
       <c r="H228">
         <v>23.079000000000001</v>
       </c>
-      <c r="I228">
+      <c r="I228" s="8">
         <v>2058</v>
       </c>
       <c r="J228">
@@ -12716,7 +12712,7 @@
         <v>87.6</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
         <v>1387</v>
       </c>
@@ -12735,13 +12731,13 @@
       <c r="F229" t="s">
         <v>736</v>
       </c>
-      <c r="G229">
+      <c r="G229" s="8">
         <v>310</v>
       </c>
       <c r="H229">
         <v>28.4115</v>
       </c>
-      <c r="I229">
+      <c r="I229" s="8">
         <v>2690</v>
       </c>
       <c r="J229">
@@ -12751,7 +12747,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
         <v>1388</v>
       </c>
@@ -12770,13 +12766,13 @@
       <c r="F230" t="s">
         <v>740</v>
       </c>
-      <c r="G230">
+      <c r="G230" s="8">
         <v>91</v>
       </c>
       <c r="H230">
         <v>8.6631</v>
       </c>
-      <c r="I230">
+      <c r="I230" s="8">
         <v>1023</v>
       </c>
       <c r="J230">
@@ -12786,7 +12782,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
         <v>1526</v>
       </c>
@@ -12805,13 +12801,13 @@
       <c r="F231" t="s">
         <v>744</v>
       </c>
-      <c r="G231">
+      <c r="G231" s="8">
         <v>147</v>
       </c>
       <c r="H231">
         <v>11.7628</v>
       </c>
-      <c r="I231">
+      <c r="I231" s="8">
         <v>1190</v>
       </c>
       <c r="J231">
@@ -12821,7 +12817,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
         <v>1389</v>
       </c>
@@ -12840,13 +12836,13 @@
       <c r="F232" t="s">
         <v>747</v>
       </c>
-      <c r="G232">
+      <c r="G232" s="8">
         <v>106</v>
       </c>
       <c r="H232">
         <v>7.4656000000000002</v>
       </c>
-      <c r="I232">
+      <c r="I232" s="8">
         <v>962</v>
       </c>
       <c r="J232">
@@ -12859,7 +12855,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
         <v>1390</v>
       </c>
@@ -12878,13 +12874,13 @@
       <c r="F233" t="s">
         <v>752</v>
       </c>
-      <c r="G233">
+      <c r="G233" s="8">
         <v>163</v>
       </c>
       <c r="H233">
         <v>14.747999999999999</v>
       </c>
-      <c r="I233">
+      <c r="I233" s="8">
         <v>1364</v>
       </c>
       <c r="J233">
@@ -12897,7 +12893,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
         <v>1391</v>
       </c>
@@ -12916,13 +12912,13 @@
       <c r="F234" t="s">
         <v>757</v>
       </c>
-      <c r="G234">
+      <c r="G234" s="8">
         <v>149</v>
       </c>
       <c r="H234">
         <v>21.0886</v>
       </c>
-      <c r="I234">
+      <c r="I234" s="8">
         <v>1887</v>
       </c>
       <c r="J234">
@@ -12935,7 +12931,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
         <v>1392</v>
       </c>
@@ -12954,13 +12950,13 @@
       <c r="F235" t="s">
         <v>761</v>
       </c>
-      <c r="G235">
+      <c r="G235" s="8">
         <v>91</v>
       </c>
       <c r="H235">
         <v>9.2659000000000002</v>
       </c>
-      <c r="I235">
+      <c r="I235" s="8">
         <v>1042</v>
       </c>
       <c r="J235">
@@ -12970,7 +12966,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
         <v>1393</v>
       </c>
@@ -12989,13 +12985,13 @@
       <c r="F236" t="s">
         <v>764</v>
       </c>
-      <c r="G236">
+      <c r="G236" s="8">
         <v>83</v>
       </c>
       <c r="H236">
         <v>6.3030999999999997</v>
       </c>
-      <c r="I236">
+      <c r="I236" s="8">
         <v>852.95100000000002</v>
       </c>
       <c r="J236">
@@ -13005,7 +13001,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
         <v>1540</v>
       </c>
@@ -13024,13 +13020,13 @@
       <c r="F237" t="s">
         <v>768</v>
       </c>
-      <c r="G237">
+      <c r="G237" s="8">
         <v>127</v>
       </c>
       <c r="H237">
         <v>30.411100000000001</v>
       </c>
-      <c r="I237">
+      <c r="I237" s="8">
         <v>2958</v>
       </c>
       <c r="J237">
@@ -13040,7 +13036,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
         <v>1514</v>
       </c>
@@ -13059,13 +13055,13 @@
       <c r="F238" t="s">
         <v>772</v>
       </c>
-      <c r="G238">
+      <c r="G238" s="8">
         <v>127</v>
       </c>
       <c r="H238">
         <v>25.933900000000001</v>
       </c>
-      <c r="I238">
+      <c r="I238" s="8">
         <v>2376</v>
       </c>
       <c r="J238">
@@ -13075,7 +13071,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
         <v>1394</v>
       </c>
@@ -13094,13 +13090,13 @@
       <c r="F239" t="s">
         <v>776</v>
       </c>
-      <c r="G239">
+      <c r="G239" s="8">
         <v>86</v>
       </c>
       <c r="H239">
         <v>28.613199999999999</v>
       </c>
-      <c r="I239">
+      <c r="I239" s="8">
         <v>2715</v>
       </c>
       <c r="J239">
@@ -13110,7 +13106,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
         <v>1395</v>
       </c>
@@ -13129,13 +13125,13 @@
       <c r="F240" t="s">
         <v>779</v>
       </c>
-      <c r="G240">
+      <c r="G240" s="8">
         <v>128</v>
       </c>
       <c r="H240">
         <v>11.9527</v>
       </c>
-      <c r="I240">
+      <c r="I240" s="8">
         <v>1185.3303000000001</v>
       </c>
       <c r="J240">
@@ -13148,7 +13144,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
         <v>1396</v>
       </c>
@@ -13167,13 +13163,13 @@
       <c r="F241" t="s">
         <v>784</v>
       </c>
-      <c r="G241">
+      <c r="G241" s="8">
         <v>166</v>
       </c>
       <c r="H241">
         <v>17.8399</v>
       </c>
-      <c r="I241">
+      <c r="I241" s="8">
         <v>1592.6817000000001</v>
       </c>
       <c r="J241">
@@ -13186,7 +13182,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
         <v>1397</v>
       </c>
@@ -13205,13 +13201,13 @@
       <c r="F242" t="s">
         <v>788</v>
       </c>
-      <c r="G242">
+      <c r="G242" s="8">
         <v>153</v>
       </c>
       <c r="H242">
         <v>16.5532</v>
       </c>
-      <c r="I242">
+      <c r="I242" s="8">
         <v>1495.0173</v>
       </c>
       <c r="J242">
@@ -13224,7 +13220,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
         <v>1398</v>
       </c>
@@ -13243,13 +13239,13 @@
       <c r="F243" t="s">
         <v>792</v>
       </c>
-      <c r="G243">
+      <c r="G243" s="8">
         <v>178</v>
       </c>
       <c r="H243">
         <v>20.228400000000001</v>
       </c>
-      <c r="I243">
+      <c r="I243" s="8">
         <v>1794.7289000000001</v>
       </c>
       <c r="J243">
@@ -13262,7 +13258,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" s="7" t="s">
         <v>1399</v>
       </c>
@@ -13281,13 +13277,13 @@
       <c r="F244" t="s">
         <v>795</v>
       </c>
-      <c r="G244">
+      <c r="G244" s="8">
         <v>202</v>
       </c>
       <c r="H244">
         <v>23.7834</v>
       </c>
-      <c r="I244">
+      <c r="I244" s="8">
         <v>2140.2127</v>
       </c>
       <c r="J244">
@@ -13300,7 +13296,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
         <v>1400</v>
       </c>
@@ -13319,13 +13315,13 @@
       <c r="F245" t="s">
         <v>795</v>
       </c>
-      <c r="G245">
+      <c r="G245" s="8">
         <v>202</v>
       </c>
       <c r="H245">
         <v>23.245999999999999</v>
       </c>
-      <c r="I245">
+      <c r="I245" s="8">
         <v>2084.8829000000001</v>
       </c>
       <c r="J245">
@@ -13338,7 +13334,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
         <v>1401</v>
       </c>
@@ -13357,13 +13353,13 @@
       <c r="F246" t="s">
         <v>792</v>
       </c>
-      <c r="G246">
+      <c r="G246" s="8">
         <v>178</v>
       </c>
       <c r="H246">
         <v>20.339600000000001</v>
       </c>
-      <c r="I246">
+      <c r="I246" s="8">
         <v>1804.6198999999999</v>
       </c>
       <c r="J246">
@@ -13376,7 +13372,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
         <v>1402</v>
       </c>
@@ -13395,13 +13391,13 @@
       <c r="F247" t="s">
         <v>802</v>
       </c>
-      <c r="G247">
+      <c r="G247" s="8">
         <v>152</v>
       </c>
       <c r="H247">
         <v>16.068200000000001</v>
       </c>
-      <c r="I247">
+      <c r="I247" s="8">
         <v>1458.204</v>
       </c>
       <c r="J247">
@@ -13414,7 +13410,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
         <v>1403</v>
       </c>
@@ -13433,13 +13429,13 @@
       <c r="F248" t="s">
         <v>806</v>
       </c>
-      <c r="G248">
+      <c r="G248" s="8">
         <v>278</v>
       </c>
       <c r="H248">
         <v>33.048400000000001</v>
       </c>
-      <c r="I248">
+      <c r="I248" s="8">
         <v>3280.4027000000001</v>
       </c>
       <c r="J248">
@@ -13452,7 +13448,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
         <v>1404</v>
       </c>
@@ -13471,13 +13467,13 @@
       <c r="F249" t="s">
         <v>810</v>
       </c>
-      <c r="G249">
+      <c r="G249" s="8">
         <v>276</v>
       </c>
       <c r="H249">
         <v>33.674799999999998</v>
       </c>
-      <c r="I249">
+      <c r="I249" s="8">
         <v>3361.7307000000001</v>
       </c>
       <c r="J249">
@@ -13490,7 +13486,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" s="7" t="s">
         <v>1405</v>
       </c>
@@ -13509,13 +13505,13 @@
       <c r="F250" t="s">
         <v>814</v>
       </c>
-      <c r="G250">
+      <c r="G250" s="8">
         <v>252</v>
       </c>
       <c r="H250">
         <v>29.439299999999999</v>
       </c>
-      <c r="I250">
+      <c r="I250" s="8">
         <v>2811.8141999999998</v>
       </c>
       <c r="J250">
@@ -13528,7 +13524,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
         <v>1406</v>
       </c>
@@ -13547,13 +13543,13 @@
       <c r="F251" t="s">
         <v>814</v>
       </c>
-      <c r="G251">
+      <c r="G251" s="8">
         <v>252</v>
       </c>
       <c r="H251">
         <v>30.127700000000001</v>
       </c>
-      <c r="I251">
+      <c r="I251" s="8">
         <v>2901.1916000000001</v>
       </c>
       <c r="J251">
@@ -13566,7 +13562,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
         <v>1407</v>
       </c>
@@ -13585,13 +13581,13 @@
       <c r="F252" t="s">
         <v>814</v>
       </c>
-      <c r="G252">
+      <c r="G252" s="8">
         <v>252</v>
       </c>
       <c r="H252">
         <v>29.489100000000001</v>
       </c>
-      <c r="I252">
+      <c r="I252" s="8">
         <v>2818.2696000000001</v>
       </c>
       <c r="J252">
@@ -13604,7 +13600,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
         <v>1408</v>
       </c>
@@ -13623,13 +13619,13 @@
       <c r="F253" t="s">
         <v>823</v>
       </c>
-      <c r="G253">
+      <c r="G253" s="8">
         <v>228</v>
       </c>
       <c r="H253">
         <v>26.9573</v>
       </c>
-      <c r="I253">
+      <c r="I253" s="8">
         <v>2497.2984000000001</v>
       </c>
       <c r="J253">
@@ -13642,7 +13638,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
         <v>1409</v>
       </c>
@@ -13661,13 +13657,13 @@
       <c r="F254" t="s">
         <v>823</v>
       </c>
-      <c r="G254">
+      <c r="G254" s="8">
         <v>228</v>
       </c>
       <c r="H254">
         <v>26.862300000000001</v>
       </c>
-      <c r="I254">
+      <c r="I254" s="8">
         <v>2485.8323</v>
       </c>
       <c r="J254">
@@ -13680,7 +13676,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
         <v>1410</v>
       </c>
@@ -13699,13 +13695,13 @@
       <c r="F255" t="s">
         <v>810</v>
       </c>
-      <c r="G255">
+      <c r="G255" s="8">
         <v>276</v>
       </c>
       <c r="H255">
         <v>32.943100000000001</v>
       </c>
-      <c r="I255">
+      <c r="I255" s="8">
         <v>3266.7235000000001</v>
       </c>
       <c r="J255">
@@ -13718,7 +13714,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" s="7" t="s">
         <v>1515</v>
       </c>
@@ -13737,13 +13733,13 @@
       <c r="F256" t="s">
         <v>832</v>
       </c>
-      <c r="G256">
+      <c r="G256" s="8">
         <v>264</v>
       </c>
       <c r="H256">
         <v>30.2561</v>
       </c>
-      <c r="I256">
+      <c r="I256" s="8">
         <v>2917.8526999999999</v>
       </c>
       <c r="J256">
@@ -13756,7 +13752,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" s="7" t="s">
         <v>1494</v>
       </c>
@@ -13775,13 +13771,13 @@
       <c r="F257" t="s">
         <v>836</v>
       </c>
-      <c r="G257">
+      <c r="G257" s="8">
         <v>240</v>
       </c>
       <c r="H257">
         <v>26.810300000000002</v>
       </c>
-      <c r="I257">
+      <c r="I257" s="8">
         <v>2479.5569</v>
       </c>
       <c r="J257">
@@ -13794,7 +13790,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
         <v>1495</v>
       </c>
@@ -13813,13 +13809,13 @@
       <c r="F258" t="s">
         <v>839</v>
       </c>
-      <c r="G258">
+      <c r="G258" s="8">
         <v>176</v>
       </c>
       <c r="H258">
         <v>17.771999999999998</v>
       </c>
-      <c r="I258">
+      <c r="I258" s="8">
         <v>1587.5237</v>
       </c>
       <c r="J258">
@@ -13829,7 +13825,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" s="7" t="s">
         <v>1505</v>
       </c>
@@ -13848,13 +13844,13 @@
       <c r="F259" t="s">
         <v>843</v>
       </c>
-      <c r="G259">
+      <c r="G259" s="8">
         <v>71</v>
       </c>
       <c r="H259">
         <v>8.2782999999999998</v>
       </c>
-      <c r="I259">
+      <c r="I259" s="8">
         <v>997.79470000000003</v>
       </c>
       <c r="J259">
@@ -13864,7 +13860,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" s="7" t="s">
         <v>1411</v>
       </c>
@@ -13883,13 +13879,13 @@
       <c r="F260" t="s">
         <v>847</v>
       </c>
-      <c r="G260">
+      <c r="G260" s="8">
         <v>73</v>
       </c>
       <c r="H260">
         <v>11.524100000000001</v>
       </c>
-      <c r="I260">
+      <c r="I260" s="8">
         <v>1163.4572000000001</v>
       </c>
       <c r="J260">
@@ -13902,7 +13898,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" s="7" t="s">
         <v>1412</v>
       </c>
@@ -13921,13 +13917,13 @@
       <c r="F261" t="s">
         <v>851</v>
       </c>
-      <c r="G261">
+      <c r="G261" s="8">
         <v>181</v>
       </c>
       <c r="H261">
         <v>19.270700000000001</v>
       </c>
-      <c r="I261">
+      <c r="I261" s="8">
         <v>1713.364</v>
       </c>
       <c r="J261">
@@ -13940,7 +13936,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" s="7" t="s">
         <v>1413</v>
       </c>
@@ -13959,13 +13955,13 @@
       <c r="F262" t="s">
         <v>851</v>
       </c>
-      <c r="G262">
+      <c r="G262" s="8">
         <v>183</v>
       </c>
       <c r="H262">
         <v>19.883500000000002</v>
       </c>
-      <c r="I262">
+      <c r="I262" s="8">
         <v>1765.4259</v>
       </c>
       <c r="J262">
@@ -13978,7 +13974,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" s="7" t="s">
         <v>1414</v>
       </c>
@@ -13997,13 +13993,13 @@
       <c r="F263" t="s">
         <v>851</v>
       </c>
-      <c r="G263">
+      <c r="G263" s="8">
         <v>181</v>
       </c>
       <c r="H263">
         <v>20.020299999999999</v>
       </c>
-      <c r="I263">
+      <c r="I263" s="8">
         <v>1777.0485000000001</v>
       </c>
       <c r="J263">
@@ -14016,7 +14012,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" s="7" t="s">
         <v>1415</v>
       </c>
@@ -14035,13 +14031,13 @@
       <c r="F264" t="s">
         <v>851</v>
       </c>
-      <c r="G264">
+      <c r="G264" s="8">
         <v>181</v>
       </c>
       <c r="H264">
         <v>20.5578</v>
       </c>
-      <c r="I264">
+      <c r="I264" s="8">
         <v>1825.0956000000001</v>
       </c>
       <c r="J264">
@@ -14054,7 +14050,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" s="7" t="s">
         <v>1501</v>
       </c>
@@ -14073,13 +14069,13 @@
       <c r="F265" t="s">
         <v>865</v>
       </c>
-      <c r="G265">
+      <c r="G265" s="8">
         <v>91</v>
       </c>
       <c r="H265">
         <v>17.011900000000001</v>
       </c>
-      <c r="I265">
+      <c r="I265" s="8">
         <v>1525</v>
       </c>
       <c r="J265">
@@ -14089,7 +14085,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" s="7" t="s">
         <v>1519</v>
       </c>
@@ -14108,13 +14104,13 @@
       <c r="F266" t="s">
         <v>609</v>
       </c>
-      <c r="G266">
+      <c r="G266" s="8">
         <v>57</v>
       </c>
       <c r="H266">
         <v>13.0784</v>
       </c>
-      <c r="I266">
+      <c r="I266" s="8">
         <v>1249</v>
       </c>
       <c r="J266">
@@ -14124,7 +14120,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" s="7" t="s">
         <v>1520</v>
       </c>
@@ -14143,13 +14139,13 @@
       <c r="F267" t="s">
         <v>609</v>
       </c>
-      <c r="G267">
+      <c r="G267" s="8">
         <v>85</v>
       </c>
       <c r="H267">
         <v>12.4063</v>
       </c>
-      <c r="I267">
+      <c r="I267" s="8">
         <v>1212.1427000000001</v>
       </c>
       <c r="J267">
@@ -14159,7 +14155,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" s="7" t="s">
         <v>1507</v>
       </c>
@@ -14178,13 +14174,13 @@
       <c r="F268" t="s">
         <v>873</v>
       </c>
-      <c r="G268">
+      <c r="G268" s="8">
         <v>83</v>
       </c>
       <c r="H268">
         <v>23.790700000000001</v>
       </c>
-      <c r="I268">
+      <c r="I268" s="8">
         <v>2144.8209000000002</v>
       </c>
       <c r="J268">
@@ -14194,7 +14190,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" s="7" t="s">
         <v>1536</v>
       </c>
@@ -14213,13 +14209,13 @@
       <c r="F269" t="s">
         <v>877</v>
       </c>
-      <c r="G269">
+      <c r="G269" s="8">
         <v>91</v>
       </c>
       <c r="H269">
         <v>29.065000000000001</v>
       </c>
-      <c r="I269">
+      <c r="I269" s="8">
         <v>2765</v>
       </c>
       <c r="J269">
@@ -14229,7 +14225,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" s="7" t="s">
         <v>1591</v>
       </c>
@@ -14248,13 +14244,13 @@
       <c r="F270" t="s">
         <v>880</v>
       </c>
-      <c r="G270">
+      <c r="G270" s="8">
         <v>149</v>
       </c>
       <c r="H270">
         <v>29.6907</v>
       </c>
-      <c r="I270">
+      <c r="I270" s="8">
         <v>2847.1444999999999</v>
       </c>
       <c r="J270">
@@ -14267,7 +14263,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" s="7" t="s">
         <v>1561</v>
       </c>
@@ -14286,13 +14282,13 @@
       <c r="F271" t="s">
         <v>883</v>
       </c>
-      <c r="G271">
+      <c r="G271" s="8">
         <v>114</v>
       </c>
       <c r="H271">
         <v>25.203700000000001</v>
       </c>
-      <c r="I271">
+      <c r="I271" s="8">
         <v>2196</v>
       </c>
       <c r="J271">
@@ -14302,7 +14298,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" s="7" t="s">
         <v>1553</v>
       </c>
@@ -14321,13 +14317,13 @@
       <c r="F272" t="s">
         <v>887</v>
       </c>
-      <c r="G272">
+      <c r="G272" s="8">
         <v>192</v>
       </c>
       <c r="H272">
         <v>21.8278</v>
       </c>
-      <c r="I272">
+      <c r="I272" s="8">
         <v>1980</v>
       </c>
       <c r="J272">
@@ -14337,7 +14333,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" s="7" t="s">
         <v>1523</v>
       </c>
@@ -14356,13 +14352,13 @@
       <c r="F273" t="s">
         <v>887</v>
       </c>
-      <c r="G273">
+      <c r="G273" s="8">
         <v>192</v>
       </c>
       <c r="H273">
         <v>21.770399999999999</v>
       </c>
-      <c r="I273">
+      <c r="I273" s="8">
         <v>1898</v>
       </c>
       <c r="J273">
@@ -14372,7 +14368,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
         <v>1416</v>
       </c>
@@ -14391,13 +14387,13 @@
       <c r="F274" t="s">
         <v>893</v>
       </c>
-      <c r="G274">
+      <c r="G274" s="8">
         <v>322</v>
       </c>
       <c r="H274">
         <v>30.626200000000001</v>
       </c>
-      <c r="I274">
+      <c r="I274" s="8">
         <v>2846</v>
       </c>
       <c r="J274">
@@ -14407,7 +14403,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" s="7" t="s">
         <v>1417</v>
       </c>
@@ -14426,13 +14422,13 @@
       <c r="F275" t="s">
         <v>897</v>
       </c>
-      <c r="G275">
+      <c r="G275" s="8">
         <v>142</v>
       </c>
       <c r="H275">
         <v>14.0639</v>
       </c>
-      <c r="I275">
+      <c r="I275" s="8">
         <v>1307</v>
       </c>
       <c r="J275">
@@ -14442,7 +14438,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" s="7" t="s">
         <v>1418</v>
       </c>
@@ -14461,13 +14457,13 @@
       <c r="F276" t="s">
         <v>901</v>
       </c>
-      <c r="G276">
+      <c r="G276" s="8">
         <v>83</v>
       </c>
       <c r="H276">
         <v>17.844000000000001</v>
       </c>
-      <c r="I276">
+      <c r="I276" s="8">
         <v>1592</v>
       </c>
       <c r="J276">
@@ -14477,7 +14473,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" s="7" t="s">
         <v>1419</v>
       </c>
@@ -14496,13 +14492,13 @@
       <c r="F277" t="s">
         <v>905</v>
       </c>
-      <c r="G277">
+      <c r="G277" s="8">
         <v>113</v>
       </c>
       <c r="H277">
         <v>13.0771</v>
       </c>
-      <c r="I277">
+      <c r="I277" s="8">
         <v>1253</v>
       </c>
       <c r="J277">
@@ -14512,7 +14508,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278" s="7" t="s">
         <v>1420</v>
       </c>
@@ -14531,13 +14527,13 @@
       <c r="F278" t="s">
         <v>908</v>
       </c>
-      <c r="G278">
+      <c r="G278" s="8">
         <v>99</v>
       </c>
       <c r="H278">
         <v>18.617899999999999</v>
       </c>
-      <c r="I278">
+      <c r="I278" s="8">
         <v>1658.5442</v>
       </c>
       <c r="J278">
@@ -14550,7 +14546,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" s="7" t="s">
         <v>1421</v>
       </c>
@@ -14569,13 +14565,13 @@
       <c r="F279" t="s">
         <v>912</v>
       </c>
-      <c r="G279">
+      <c r="G279" s="8">
         <v>84</v>
       </c>
       <c r="H279">
         <v>14.7095</v>
       </c>
-      <c r="I279">
+      <c r="I279" s="8">
         <v>1361.8101999999999</v>
       </c>
       <c r="J279">
@@ -14588,7 +14584,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280" s="7" t="s">
         <v>1422</v>
       </c>
@@ -14607,13 +14603,13 @@
       <c r="F280" t="s">
         <v>72</v>
       </c>
-      <c r="G280">
+      <c r="G280" s="8">
         <v>119</v>
       </c>
       <c r="H280">
         <v>17.823599999999999</v>
       </c>
-      <c r="I280">
+      <c r="I280" s="8">
         <v>1592.1183000000001</v>
       </c>
       <c r="J280">
@@ -14626,7 +14622,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281" s="7" t="s">
         <v>1423</v>
       </c>
@@ -14645,13 +14641,13 @@
       <c r="F281" t="s">
         <v>919</v>
       </c>
-      <c r="G281">
+      <c r="G281" s="8">
         <v>215</v>
       </c>
       <c r="H281">
         <v>22.218499999999999</v>
       </c>
-      <c r="I281">
+      <c r="I281" s="8">
         <v>1939</v>
       </c>
       <c r="J281">
@@ -14664,7 +14660,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
         <v>1424</v>
       </c>
@@ -14683,13 +14679,13 @@
       <c r="F282" t="s">
         <v>922</v>
       </c>
-      <c r="G282">
+      <c r="G282" s="8">
         <v>326</v>
       </c>
       <c r="H282">
         <v>26.311299999999999</v>
       </c>
-      <c r="I282">
+      <c r="I282" s="8">
         <v>2420.4087</v>
       </c>
       <c r="J282">
@@ -14702,7 +14698,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283" s="7" t="s">
         <v>1425</v>
       </c>
@@ -14721,13 +14717,13 @@
       <c r="F283" t="s">
         <v>926</v>
       </c>
-      <c r="G283">
+      <c r="G283" s="8">
         <v>249</v>
       </c>
       <c r="H283">
         <v>20.019400000000001</v>
       </c>
-      <c r="I283">
+      <c r="I283" s="8">
         <v>1777.3670999999999</v>
       </c>
       <c r="J283">
@@ -14740,7 +14736,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284" s="7" t="s">
         <v>1426</v>
       </c>
@@ -14759,13 +14755,13 @@
       <c r="F284" t="s">
         <v>30</v>
       </c>
-      <c r="G284">
+      <c r="G284" s="8">
         <v>108</v>
       </c>
       <c r="H284">
         <v>6.4912999999999998</v>
       </c>
-      <c r="I284">
+      <c r="I284" s="8">
         <v>920</v>
       </c>
       <c r="J284">
@@ -14775,7 +14771,7 @@
         <v>94.8</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285" s="7" t="s">
         <v>1542</v>
       </c>
@@ -14794,13 +14790,13 @@
       <c r="F285" t="s">
         <v>933</v>
       </c>
-      <c r="G285">
+      <c r="G285" s="8">
         <v>207</v>
       </c>
       <c r="H285">
         <v>4.4783999999999997</v>
       </c>
-      <c r="I285">
+      <c r="I285" s="8">
         <v>851</v>
       </c>
       <c r="J285">
@@ -14813,7 +14809,7 @@
         <v>93.9</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286" s="7" t="s">
         <v>1427</v>
       </c>
@@ -14832,13 +14828,13 @@
       <c r="F286" t="s">
         <v>107</v>
       </c>
-      <c r="G286">
+      <c r="G286" s="8">
         <v>243</v>
       </c>
       <c r="H286">
         <v>21.0307</v>
       </c>
-      <c r="I286">
+      <c r="I286" s="8">
         <v>1851</v>
       </c>
       <c r="J286">
@@ -14851,7 +14847,7 @@
         <v>93.7</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287" s="7" t="s">
         <v>1428</v>
       </c>
@@ -14870,13 +14866,13 @@
       <c r="F287" t="s">
         <v>601</v>
       </c>
-      <c r="G287">
+      <c r="G287" s="8">
         <v>57</v>
       </c>
       <c r="H287">
         <v>12.252599999999999</v>
       </c>
-      <c r="I287">
+      <c r="I287" s="8">
         <v>1200</v>
       </c>
       <c r="J287">
@@ -14889,7 +14885,7 @@
         <v>92.5</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288" s="7" t="s">
         <v>1530</v>
       </c>
@@ -14908,13 +14904,13 @@
       <c r="F288" t="s">
         <v>943</v>
       </c>
-      <c r="G288">
+      <c r="G288" s="8">
         <v>84</v>
       </c>
       <c r="H288">
         <v>13.178599999999999</v>
       </c>
-      <c r="I288">
+      <c r="I288" s="8">
         <v>1203</v>
       </c>
       <c r="J288">
@@ -14924,7 +14920,7 @@
         <v>91.8</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289" s="7" t="s">
         <v>1429</v>
       </c>
@@ -14943,13 +14939,13 @@
       <c r="F289" t="s">
         <v>187</v>
       </c>
-      <c r="G289">
+      <c r="G289" s="8">
         <v>91</v>
       </c>
       <c r="H289">
         <v>18.823799999999999</v>
       </c>
-      <c r="I289">
+      <c r="I289" s="8">
         <v>1673</v>
       </c>
       <c r="J289">
@@ -14962,7 +14958,7 @@
         <v>91.4</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A290" s="7" t="s">
         <v>1546</v>
       </c>
@@ -14981,13 +14977,13 @@
       <c r="F290" t="s">
         <v>951</v>
       </c>
-      <c r="G290">
+      <c r="G290" s="8">
         <v>68</v>
       </c>
       <c r="H290">
         <v>7.1456</v>
       </c>
-      <c r="I290">
+      <c r="I290" s="8">
         <v>949</v>
       </c>
       <c r="J290">
@@ -14997,7 +14993,7 @@
         <v>97.8</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291" s="7" t="s">
         <v>1430</v>
       </c>
@@ -15016,13 +15012,13 @@
       <c r="F291" t="s">
         <v>955</v>
       </c>
-      <c r="G291">
+      <c r="G291" s="8">
         <v>119</v>
       </c>
       <c r="H291">
         <v>7.4387999999999996</v>
       </c>
-      <c r="I291">
+      <c r="I291" s="8">
         <v>979</v>
       </c>
       <c r="J291">
@@ -15032,7 +15028,7 @@
         <v>97.6</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A292" s="7" t="s">
         <v>1431</v>
       </c>
@@ -15051,13 +15047,13 @@
       <c r="F292" t="s">
         <v>959</v>
       </c>
-      <c r="G292">
+      <c r="G292" s="8">
         <v>91</v>
       </c>
       <c r="H292">
         <v>5.3129999999999997</v>
       </c>
-      <c r="I292">
+      <c r="I292" s="8">
         <v>866</v>
       </c>
       <c r="J292">
@@ -15070,7 +15066,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A293" s="7" t="s">
         <v>1432</v>
       </c>
@@ -15089,13 +15085,13 @@
       <c r="F293" t="s">
         <v>962</v>
       </c>
-      <c r="G293">
+      <c r="G293" s="8">
         <v>57</v>
       </c>
       <c r="H293">
         <v>15.2987</v>
       </c>
-      <c r="I293">
+      <c r="I293" s="8">
         <v>1400</v>
       </c>
       <c r="J293">
@@ -15108,7 +15104,7 @@
         <v>95.4</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294" s="7" t="s">
         <v>1554</v>
       </c>
@@ -15127,13 +15123,13 @@
       <c r="F294" t="s">
         <v>966</v>
       </c>
-      <c r="G294">
+      <c r="G294" s="8">
         <v>185</v>
       </c>
       <c r="H294">
         <v>24.323699999999999</v>
       </c>
-      <c r="I294">
+      <c r="I294" s="8">
         <v>2150</v>
       </c>
       <c r="J294">
@@ -15143,7 +15139,7 @@
         <v>94.8</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295" s="7" t="s">
         <v>1433</v>
       </c>
@@ -15162,13 +15158,13 @@
       <c r="F295" t="s">
         <v>13</v>
       </c>
-      <c r="G295">
+      <c r="G295" s="8">
         <v>57</v>
       </c>
       <c r="H295">
         <v>10.4696</v>
       </c>
-      <c r="I295">
+      <c r="I295" s="8">
         <v>1100</v>
       </c>
       <c r="J295">
@@ -15181,7 +15177,7 @@
         <v>97.1</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A296" s="7" t="s">
         <v>1434</v>
       </c>
@@ -15200,13 +15196,13 @@
       <c r="F296" t="s">
         <v>971</v>
       </c>
-      <c r="G296">
+      <c r="G296" s="8">
         <v>57</v>
       </c>
       <c r="H296">
         <v>8.4257000000000009</v>
       </c>
-      <c r="I296">
+      <c r="I296" s="8">
         <v>1017.6129</v>
       </c>
       <c r="J296">
@@ -15219,7 +15215,7 @@
         <v>95.8</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297" s="7" t="s">
         <v>1435</v>
       </c>
@@ -15238,13 +15234,13 @@
       <c r="F297" t="s">
         <v>643</v>
       </c>
-      <c r="G297">
+      <c r="G297" s="8">
         <v>57</v>
       </c>
       <c r="H297">
         <v>9.0688999999999993</v>
       </c>
-      <c r="I297">
+      <c r="I297" s="8">
         <v>1030</v>
       </c>
       <c r="J297">
@@ -15254,7 +15250,7 @@
         <v>95.7</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A298" s="7" t="s">
         <v>1436</v>
       </c>
@@ -15273,13 +15269,13 @@
       <c r="F298" t="s">
         <v>977</v>
       </c>
-      <c r="G298">
+      <c r="G298" s="8">
         <v>72</v>
       </c>
       <c r="H298">
         <v>8.8475000000000001</v>
       </c>
-      <c r="I298">
+      <c r="I298" s="8">
         <v>993</v>
       </c>
       <c r="J298">
@@ -15289,7 +15285,7 @@
         <v>95.3</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299" s="7" t="s">
         <v>1437</v>
       </c>
@@ -15308,13 +15304,13 @@
       <c r="F299" t="s">
         <v>66</v>
       </c>
-      <c r="G299">
+      <c r="G299" s="8">
         <v>191</v>
       </c>
       <c r="H299">
         <v>16.835599999999999</v>
       </c>
-      <c r="I299">
+      <c r="I299" s="8">
         <v>1514</v>
       </c>
       <c r="J299">
@@ -15324,7 +15320,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A300" s="7" t="s">
         <v>1438</v>
       </c>
@@ -15343,13 +15339,13 @@
       <c r="F300" t="s">
         <v>983</v>
       </c>
-      <c r="G300">
+      <c r="G300" s="8">
         <v>98</v>
       </c>
       <c r="H300">
         <v>5.9173999999999998</v>
       </c>
-      <c r="I300">
+      <c r="I300" s="8">
         <v>894</v>
       </c>
       <c r="J300">
@@ -15359,7 +15355,7 @@
         <v>92.9</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301" s="7" t="s">
         <v>1439</v>
       </c>
@@ -15378,13 +15374,13 @@
       <c r="F301" t="s">
         <v>987</v>
       </c>
-      <c r="G301">
+      <c r="G301" s="8">
         <v>102</v>
       </c>
       <c r="H301">
         <v>18.261600000000001</v>
       </c>
-      <c r="I301">
+      <c r="I301" s="8">
         <v>1618</v>
       </c>
       <c r="J301">
@@ -15394,7 +15390,7 @@
         <v>96.1</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302" s="7" t="s">
         <v>1440</v>
       </c>
@@ -15413,13 +15409,13 @@
       <c r="F302" t="s">
         <v>991</v>
       </c>
-      <c r="G302">
+      <c r="G302" s="8">
         <v>97</v>
       </c>
       <c r="H302">
         <v>8.3247999999999998</v>
       </c>
-      <c r="I302">
+      <c r="I302" s="8">
         <v>1086</v>
       </c>
       <c r="J302">
@@ -15429,7 +15425,7 @@
         <v>96.1</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303" s="7" t="s">
         <v>1441</v>
       </c>
@@ -15448,13 +15444,13 @@
       <c r="F303" t="s">
         <v>995</v>
       </c>
-      <c r="G303">
+      <c r="G303" s="8">
         <v>162</v>
       </c>
       <c r="H303">
         <v>11.701000000000001</v>
       </c>
-      <c r="I303">
+      <c r="I303" s="8">
         <v>1186.4386999999999</v>
       </c>
       <c r="J303">
@@ -15464,7 +15460,7 @@
         <v>94.9</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A304" s="7" t="s">
         <v>1442</v>
       </c>
@@ -15483,13 +15479,13 @@
       <c r="F304" t="s">
         <v>999</v>
       </c>
-      <c r="G304">
+      <c r="G304" s="8">
         <v>166</v>
       </c>
       <c r="H304">
         <v>4.0998999999999999</v>
       </c>
-      <c r="I304">
+      <c r="I304" s="8">
         <v>815</v>
       </c>
       <c r="J304">
@@ -15502,7 +15498,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305" s="7" t="s">
         <v>1443</v>
       </c>
@@ -15521,13 +15517,13 @@
       <c r="F305" t="s">
         <v>1004</v>
       </c>
-      <c r="G305">
+      <c r="G305" s="8">
         <v>105</v>
       </c>
       <c r="H305">
         <v>7.69</v>
       </c>
-      <c r="I305">
+      <c r="I305" s="8">
         <v>972</v>
       </c>
       <c r="J305">
@@ -15537,7 +15533,7 @@
         <v>93.4</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306" s="7" t="s">
         <v>1444</v>
       </c>
@@ -15556,13 +15552,13 @@
       <c r="F306" t="s">
         <v>1004</v>
       </c>
-      <c r="G306">
+      <c r="G306" s="8">
         <v>105</v>
       </c>
       <c r="H306">
         <v>7.6896000000000004</v>
       </c>
-      <c r="I306">
+      <c r="I306" s="8">
         <v>990</v>
       </c>
       <c r="J306">
@@ -15572,7 +15568,7 @@
         <v>94.1</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307" s="7" t="s">
         <v>1445</v>
       </c>
@@ -15591,13 +15587,13 @@
       <c r="F307" t="s">
         <v>1011</v>
       </c>
-      <c r="G307">
+      <c r="G307" s="8">
         <v>164</v>
       </c>
       <c r="H307">
         <v>15.0023</v>
       </c>
-      <c r="I307">
+      <c r="I307" s="8">
         <v>1375</v>
       </c>
       <c r="J307">
@@ -15610,7 +15606,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308" s="7" t="s">
         <v>1446</v>
       </c>
@@ -15629,13 +15625,13 @@
       <c r="F308" t="s">
         <v>1016</v>
       </c>
-      <c r="G308">
+      <c r="G308" s="8">
         <v>103</v>
       </c>
       <c r="H308">
         <v>14.583299999999999</v>
       </c>
-      <c r="I308">
+      <c r="I308" s="8">
         <v>1350</v>
       </c>
       <c r="J308">
@@ -15645,7 +15641,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A309" s="7" t="s">
         <v>1389</v>
       </c>
@@ -15664,13 +15660,13 @@
       <c r="F309" t="s">
         <v>747</v>
       </c>
-      <c r="G309">
+      <c r="G309" s="8">
         <v>105</v>
       </c>
       <c r="H309">
         <v>7.4656000000000002</v>
       </c>
-      <c r="I309">
+      <c r="I309" s="8">
         <v>962</v>
       </c>
       <c r="J309">
@@ -15683,7 +15679,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A310" s="7" t="s">
         <v>1447</v>
       </c>
@@ -15702,13 +15698,13 @@
       <c r="F310" t="s">
         <v>609</v>
       </c>
-      <c r="G310">
+      <c r="G310" s="8">
         <v>57</v>
       </c>
       <c r="H310">
         <v>13.828799999999999</v>
       </c>
-      <c r="I310">
+      <c r="I310" s="8">
         <v>1300</v>
       </c>
       <c r="J310">
@@ -15721,7 +15717,7 @@
         <v>97.4</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311" s="7" t="s">
         <v>1448</v>
       </c>
@@ -15740,13 +15736,13 @@
       <c r="F311" t="s">
         <v>182</v>
       </c>
-      <c r="G311">
+      <c r="G311" s="8">
         <v>119</v>
       </c>
       <c r="H311">
         <v>10.0909</v>
       </c>
-      <c r="I311">
+      <c r="I311" s="8">
         <v>1079</v>
       </c>
       <c r="J311">
@@ -15756,7 +15752,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A312" s="7" t="s">
         <v>1497</v>
       </c>
@@ -15775,13 +15771,13 @@
       <c r="F312" t="s">
         <v>893</v>
       </c>
-      <c r="G312">
+      <c r="G312" s="8">
         <v>322</v>
       </c>
       <c r="H312">
         <v>30.602799999999998</v>
       </c>
-      <c r="I312">
+      <c r="I312" s="8">
         <v>3184</v>
       </c>
       <c r="J312">
@@ -15791,7 +15787,7 @@
         <v>94.2</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313" s="7" t="s">
         <v>1449</v>
       </c>
@@ -15810,13 +15806,13 @@
       <c r="F313" t="s">
         <v>452</v>
       </c>
-      <c r="G313">
+      <c r="G313" s="8">
         <v>129</v>
       </c>
       <c r="H313">
         <v>19.907399999999999</v>
       </c>
-      <c r="I313">
+      <c r="I313" s="8">
         <v>1766</v>
       </c>
       <c r="J313">
@@ -15826,7 +15822,7 @@
         <v>91.6</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A314" s="7" t="s">
         <v>1450</v>
       </c>
@@ -15845,13 +15841,13 @@
       <c r="F314" t="s">
         <v>1031</v>
       </c>
-      <c r="G314">
+      <c r="G314" s="8">
         <v>281</v>
       </c>
       <c r="H314">
         <v>8.4789999999999992</v>
       </c>
-      <c r="I314">
+      <c r="I314" s="8">
         <v>994</v>
       </c>
       <c r="J314">
@@ -15864,7 +15860,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315" s="7" t="s">
         <v>1588</v>
       </c>
@@ -15883,13 +15879,13 @@
       <c r="F315" t="s">
         <v>1035</v>
       </c>
-      <c r="G315">
+      <c r="G315" s="8">
         <v>122</v>
       </c>
       <c r="H315">
         <v>14.421799999999999</v>
       </c>
-      <c r="I315">
+      <c r="I315" s="8">
         <v>1341</v>
       </c>
       <c r="J315">
@@ -15899,7 +15895,7 @@
         <v>94.6</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A316" s="7" t="s">
         <v>1451</v>
       </c>
@@ -15918,13 +15914,13 @@
       <c r="F316" t="s">
         <v>256</v>
       </c>
-      <c r="G316">
+      <c r="G316" s="8">
         <v>136</v>
       </c>
       <c r="H316">
         <v>10.196</v>
       </c>
-      <c r="I316">
+      <c r="I316" s="8">
         <v>1088</v>
       </c>
       <c r="J316">
@@ -15934,7 +15930,7 @@
         <v>92.7</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A317" s="7" t="s">
         <v>1452</v>
       </c>
@@ -15953,13 +15949,13 @@
       <c r="F317" t="s">
         <v>1042</v>
       </c>
-      <c r="G317">
+      <c r="G317" s="8">
         <v>59</v>
       </c>
       <c r="H317">
         <v>29.270700000000001</v>
       </c>
-      <c r="I317">
+      <c r="I317" s="8">
         <v>2793</v>
       </c>
       <c r="J317">
@@ -15969,7 +15965,7 @@
         <v>90.3</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A318" s="7" t="s">
         <v>1513</v>
       </c>
@@ -15988,13 +15984,13 @@
       <c r="F318" t="s">
         <v>643</v>
       </c>
-      <c r="G318">
+      <c r="G318" s="8">
         <v>57</v>
       </c>
       <c r="H318">
         <v>5.6940999999999997</v>
       </c>
-      <c r="I318">
+      <c r="I318" s="8">
         <v>858</v>
       </c>
       <c r="J318">
@@ -16004,7 +16000,7 @@
         <v>95.9</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A319" s="7" t="s">
         <v>1543</v>
       </c>
@@ -16023,13 +16019,13 @@
       <c r="F319" t="s">
         <v>1048</v>
       </c>
-      <c r="G319">
+      <c r="G319" s="8">
         <v>191</v>
       </c>
       <c r="H319">
         <v>18.855</v>
       </c>
-      <c r="I319">
+      <c r="I319" s="8">
         <v>1658</v>
       </c>
       <c r="J319">
@@ -16042,7 +16038,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A320" s="7" t="s">
         <v>1453</v>
       </c>
@@ -16061,13 +16057,13 @@
       <c r="F320" t="s">
         <v>218</v>
       </c>
-      <c r="G320">
+      <c r="G320" s="8">
         <v>149</v>
       </c>
       <c r="H320">
         <v>28.973199999999999</v>
       </c>
-      <c r="I320">
+      <c r="I320" s="8">
         <v>2756</v>
       </c>
       <c r="J320">
@@ -16080,7 +16076,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A321" s="7" t="s">
         <v>1454</v>
       </c>
@@ -16099,13 +16095,13 @@
       <c r="F321" t="s">
         <v>1055</v>
       </c>
-      <c r="G321">
+      <c r="G321" s="8">
         <v>129</v>
       </c>
       <c r="H321">
         <v>22.212299999999999</v>
       </c>
-      <c r="I321">
+      <c r="I321" s="8">
         <v>1978</v>
       </c>
       <c r="J321">
@@ -16115,7 +16111,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A322" s="7" t="s">
         <v>1455</v>
       </c>
@@ -16134,13 +16130,13 @@
       <c r="F322" t="s">
         <v>207</v>
       </c>
-      <c r="G322">
+      <c r="G322" s="8">
         <v>121</v>
       </c>
       <c r="H322">
         <v>8.1774000000000004</v>
       </c>
-      <c r="I322">
+      <c r="I322" s="8">
         <v>1003</v>
       </c>
       <c r="J322">
@@ -16150,7 +16146,7 @@
         <v>95.7</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A323" s="7" t="s">
         <v>1456</v>
       </c>
@@ -16169,13 +16165,13 @@
       <c r="F323" t="s">
         <v>10</v>
       </c>
-      <c r="G323">
+      <c r="G323" s="8">
         <v>146</v>
       </c>
       <c r="H323">
         <v>9.1096000000000004</v>
       </c>
-      <c r="I323">
+      <c r="I323" s="8">
         <v>1043</v>
       </c>
       <c r="J323">
@@ -16188,7 +16184,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A324" s="7" t="s">
         <v>1502</v>
       </c>
@@ -16207,13 +16203,13 @@
       <c r="F324" t="s">
         <v>10</v>
       </c>
-      <c r="G324">
+      <c r="G324" s="8">
         <v>146</v>
       </c>
       <c r="H324">
         <v>8.6264000000000003</v>
       </c>
-      <c r="I324">
+      <c r="I324" s="8">
         <v>1021</v>
       </c>
       <c r="J324">
@@ -16226,7 +16222,7 @@
         <v>98.8</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A325" s="7" t="s">
         <v>1457</v>
       </c>
@@ -16245,13 +16241,13 @@
       <c r="F325" t="s">
         <v>1004</v>
       </c>
-      <c r="G325">
+      <c r="G325" s="8">
         <v>105</v>
       </c>
       <c r="H325">
         <v>6.5961999999999996</v>
       </c>
-      <c r="I325">
+      <c r="I325" s="8">
         <v>922</v>
       </c>
       <c r="J325">
@@ -16264,7 +16260,7 @@
         <v>91.5</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A326" s="7" t="s">
         <v>1458</v>
       </c>
@@ -16283,13 +16279,13 @@
       <c r="F326" t="s">
         <v>959</v>
       </c>
-      <c r="G326">
+      <c r="G326" s="8">
         <v>91</v>
       </c>
       <c r="H326">
         <v>5.8353000000000002</v>
       </c>
-      <c r="I326">
+      <c r="I326" s="8">
         <v>888</v>
       </c>
       <c r="J326">
@@ -16302,7 +16298,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A327" s="7" t="s">
         <v>1552</v>
       </c>
@@ -16318,13 +16314,13 @@
       <c r="F327" t="s">
         <v>1071</v>
       </c>
-      <c r="G327">
+      <c r="G327" s="8">
         <v>173</v>
       </c>
       <c r="H327">
         <v>5.6485000000000003</v>
       </c>
-      <c r="I327">
+      <c r="I327" s="8">
         <v>892</v>
       </c>
       <c r="J327">
@@ -16337,7 +16333,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A328" s="7" t="s">
         <v>1459</v>
       </c>
@@ -16356,13 +16352,13 @@
       <c r="F328" t="s">
         <v>959</v>
       </c>
-      <c r="G328">
+      <c r="G328" s="8">
         <v>91</v>
       </c>
       <c r="H328">
         <v>5.3129999999999997</v>
       </c>
-      <c r="I328">
+      <c r="I328" s="8">
         <v>865</v>
       </c>
       <c r="J328">
@@ -16375,7 +16371,7 @@
         <v>91.2</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A329" s="7" t="s">
         <v>1460</v>
       </c>
@@ -16394,13 +16390,13 @@
       <c r="F329" t="s">
         <v>959</v>
       </c>
-      <c r="G329">
+      <c r="G329" s="8">
         <v>91</v>
       </c>
       <c r="H329">
         <v>5.1374000000000004</v>
       </c>
-      <c r="I329">
+      <c r="I329" s="8">
         <v>855</v>
       </c>
       <c r="J329">
@@ -16413,7 +16409,7 @@
         <v>97.6</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A330" s="7" t="s">
         <v>1504</v>
       </c>
@@ -16432,13 +16428,13 @@
       <c r="F330" t="s">
         <v>1079</v>
       </c>
-      <c r="G330">
+      <c r="G330" s="8">
         <v>112</v>
       </c>
       <c r="H330">
         <v>4.8110999999999997</v>
       </c>
-      <c r="I330">
+      <c r="I330" s="8">
         <v>849</v>
       </c>
       <c r="J330">
@@ -16451,7 +16447,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A331" s="7" t="s">
         <v>1461</v>
       </c>
@@ -16470,13 +16466,13 @@
       <c r="F331" t="s">
         <v>601</v>
       </c>
-      <c r="G331">
+      <c r="G331" s="8">
         <v>57</v>
       </c>
       <c r="H331">
         <v>8.1425999999999998</v>
       </c>
-      <c r="I331">
+      <c r="I331" s="8">
         <v>990</v>
       </c>
       <c r="J331">
@@ -16486,7 +16482,7 @@
         <v>92.4</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A332" s="7" t="s">
         <v>1462</v>
       </c>
@@ -16505,13 +16501,13 @@
       <c r="F332" t="s">
         <v>1086</v>
       </c>
-      <c r="G332">
+      <c r="G332" s="8">
         <v>205</v>
       </c>
       <c r="H332">
         <v>16.8841</v>
       </c>
-      <c r="I332">
+      <c r="I332" s="8">
         <v>1513</v>
       </c>
       <c r="J332">
@@ -16524,7 +16520,7 @@
         <v>95.9</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A333" s="7" t="s">
         <v>1508</v>
       </c>
@@ -16540,13 +16536,13 @@
       <c r="F333" t="s">
         <v>1089</v>
       </c>
-      <c r="G333">
+      <c r="G333" s="8">
         <v>149</v>
       </c>
       <c r="H333">
         <v>13.7783</v>
       </c>
-      <c r="I333">
+      <c r="I333" s="8">
         <v>1281</v>
       </c>
       <c r="J333">
@@ -16559,7 +16555,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A334" s="7" t="s">
         <v>1463</v>
       </c>
@@ -16578,13 +16574,13 @@
       <c r="F334" t="s">
         <v>1093</v>
       </c>
-      <c r="G334">
+      <c r="G334" s="8">
         <v>99</v>
       </c>
       <c r="H334">
         <v>11.0166</v>
       </c>
-      <c r="I334">
+      <c r="I334" s="8">
         <v>1137</v>
       </c>
       <c r="J334">
@@ -16597,7 +16593,7 @@
         <v>97.8</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A335" s="7" t="s">
         <v>1464</v>
       </c>
@@ -16616,13 +16612,13 @@
       <c r="F335" t="s">
         <v>1097</v>
       </c>
-      <c r="G335">
+      <c r="G335" s="8">
         <v>58</v>
       </c>
       <c r="H335">
         <v>26.720300000000002</v>
       </c>
-      <c r="I335">
+      <c r="I335" s="8">
         <v>2407</v>
       </c>
       <c r="J335">
@@ -16635,7 +16631,7 @@
         <v>58.3</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A336" s="7" t="s">
         <v>1558</v>
       </c>
@@ -16654,13 +16650,13 @@
       <c r="F336" t="s">
         <v>1101</v>
       </c>
-      <c r="G336">
+      <c r="G336" s="8">
         <v>151</v>
       </c>
       <c r="H336">
         <v>18.9831</v>
       </c>
-      <c r="I336">
+      <c r="I336" s="8">
         <v>1630</v>
       </c>
       <c r="J336">
@@ -16673,7 +16669,7 @@
         <v>78.3</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337" s="7" t="s">
         <v>1465</v>
       </c>
@@ -16689,13 +16685,13 @@
       <c r="F337" t="s">
         <v>1104</v>
       </c>
-      <c r="G337">
+      <c r="G337" s="8">
         <v>163</v>
       </c>
       <c r="H337">
         <v>16.119</v>
       </c>
-      <c r="I337">
+      <c r="I337" s="8">
         <v>1454</v>
       </c>
       <c r="J337">
@@ -16708,7 +16704,7 @@
         <v>96.5</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A338" s="7" t="s">
         <v>1466</v>
       </c>
@@ -16727,13 +16723,13 @@
       <c r="F338" t="s">
         <v>1108</v>
       </c>
-      <c r="G338">
+      <c r="G338" s="8">
         <v>149</v>
       </c>
       <c r="H338">
         <v>17.9468</v>
       </c>
-      <c r="I338">
+      <c r="I338" s="8">
         <v>1598</v>
       </c>
       <c r="J338">
@@ -16746,7 +16742,7 @@
         <v>96.3</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339" s="7" t="s">
         <v>1467</v>
       </c>
@@ -16765,13 +16761,13 @@
       <c r="F339" t="s">
         <v>757</v>
       </c>
-      <c r="G339">
+      <c r="G339" s="8">
         <v>149</v>
       </c>
       <c r="H339">
         <v>22.084399999999999</v>
       </c>
-      <c r="I339">
+      <c r="I339" s="8">
         <v>1973</v>
       </c>
       <c r="J339">
@@ -16784,7 +16780,7 @@
         <v>98.7</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A340" s="7" t="s">
         <v>1468</v>
       </c>
@@ -16803,13 +16799,13 @@
       <c r="F340" t="s">
         <v>1114</v>
       </c>
-      <c r="G340">
+      <c r="G340" s="8">
         <v>149</v>
       </c>
       <c r="H340">
         <v>25.821000000000002</v>
       </c>
-      <c r="I340">
+      <c r="I340" s="8">
         <v>2336</v>
       </c>
       <c r="J340">
@@ -16822,7 +16818,7 @@
         <v>95.3</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A341" s="7" t="s">
         <v>1469</v>
       </c>
@@ -16838,13 +16834,13 @@
       <c r="F341" t="s">
         <v>218</v>
       </c>
-      <c r="G341">
+      <c r="G341" s="8">
         <v>149</v>
       </c>
       <c r="H341">
         <v>27.429400000000001</v>
       </c>
-      <c r="I341">
+      <c r="I341" s="8">
         <v>2558.7458999999999</v>
       </c>
       <c r="J341">
@@ -16857,7 +16853,7 @@
         <v>91.2</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342" s="7" t="s">
         <v>1470</v>
       </c>
@@ -16873,13 +16869,13 @@
       <c r="F342" t="s">
         <v>218</v>
       </c>
-      <c r="G342">
+      <c r="G342" s="8">
         <v>149</v>
       </c>
       <c r="H342">
         <v>28.896899999999999</v>
       </c>
-      <c r="I342">
+      <c r="I342" s="8">
         <v>2745.9612000000002</v>
       </c>
       <c r="J342">
@@ -16892,7 +16888,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A343" s="7" t="s">
         <v>1539</v>
       </c>
@@ -16908,13 +16904,13 @@
       <c r="F343" t="s">
         <v>1121</v>
       </c>
-      <c r="G343">
+      <c r="G343" s="8">
         <v>224</v>
       </c>
       <c r="H343">
         <v>19.185400000000001</v>
       </c>
-      <c r="I343">
+      <c r="I343" s="8">
         <v>1706.1189999999999</v>
       </c>
       <c r="J343">
@@ -16924,7 +16920,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A344" s="7" t="s">
         <v>1471</v>
       </c>
@@ -16940,13 +16936,13 @@
       <c r="F344" t="s">
         <v>1125</v>
       </c>
-      <c r="G344">
+      <c r="G344" s="8">
         <v>100</v>
       </c>
       <c r="H344">
         <v>21.587199999999999</v>
       </c>
-      <c r="I344">
+      <c r="I344" s="8">
         <v>1887</v>
       </c>
       <c r="J344">
@@ -16959,7 +16955,7 @@
         <v>90.6</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A345" s="7" t="s">
         <v>1472</v>
       </c>
@@ -16975,13 +16971,13 @@
       <c r="F345" t="s">
         <v>1129</v>
       </c>
-      <c r="G345">
+      <c r="G345" s="8">
         <v>263</v>
       </c>
       <c r="H345">
         <v>22.3232</v>
       </c>
-      <c r="I345">
+      <c r="I345" s="8">
         <v>1955</v>
       </c>
       <c r="J345">
@@ -16994,7 +16990,7 @@
         <v>91.4</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A346" s="7" t="s">
         <v>1473</v>
       </c>
@@ -17013,13 +17009,13 @@
       <c r="F346" t="s">
         <v>1133</v>
       </c>
-      <c r="G346">
+      <c r="G346" s="8">
         <v>353</v>
       </c>
       <c r="H346">
         <v>23.162299999999998</v>
       </c>
-      <c r="I346">
+      <c r="I346" s="8">
         <v>2015</v>
       </c>
       <c r="J346">
@@ -17032,7 +17028,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347" s="7" t="s">
         <v>1474</v>
       </c>
@@ -17051,13 +17047,13 @@
       <c r="F347" t="s">
         <v>1137</v>
       </c>
-      <c r="G347">
+      <c r="G347" s="8">
         <v>195</v>
       </c>
       <c r="H347">
         <v>23.898499999999999</v>
       </c>
-      <c r="I347">
+      <c r="I347" s="8">
         <v>2114</v>
       </c>
       <c r="J347">
@@ -17070,7 +17066,7 @@
         <v>88.8</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A348" s="7" t="s">
         <v>1475</v>
       </c>
@@ -17086,13 +17082,13 @@
       <c r="F348" t="s">
         <v>1140</v>
       </c>
-      <c r="G348">
+      <c r="G348" s="8">
         <v>246</v>
       </c>
       <c r="H348">
         <v>24.3673</v>
       </c>
-      <c r="I348">
+      <c r="I348" s="8">
         <v>2169</v>
       </c>
       <c r="J348">
@@ -17105,7 +17101,7 @@
         <v>95.5</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349" s="7" t="s">
         <v>1476</v>
       </c>
@@ -17121,13 +17117,13 @@
       <c r="F349" t="s">
         <v>1143</v>
       </c>
-      <c r="G349">
+      <c r="G349" s="8">
         <v>79</v>
       </c>
       <c r="H349">
         <v>24.4239</v>
       </c>
-      <c r="I349">
+      <c r="I349" s="8">
         <v>2167</v>
       </c>
       <c r="J349">
@@ -17140,7 +17136,7 @@
         <v>80.900000000000006</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A350" s="7" t="s">
         <v>1477</v>
       </c>
@@ -17156,13 +17152,13 @@
       <c r="F350" t="s">
         <v>1143</v>
       </c>
-      <c r="G350">
+      <c r="G350" s="8">
         <v>263</v>
       </c>
       <c r="H350">
         <v>24.863</v>
       </c>
-      <c r="I350">
+      <c r="I350" s="8">
         <v>2211</v>
       </c>
       <c r="J350">
@@ -17175,7 +17171,7 @@
         <v>82.3</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A351" s="7" t="s">
         <v>1478</v>
       </c>
@@ -17194,13 +17190,13 @@
       <c r="F351" t="s">
         <v>1137</v>
       </c>
-      <c r="G351">
+      <c r="G351" s="8">
         <v>195</v>
       </c>
       <c r="H351">
         <v>25.046299999999999</v>
       </c>
-      <c r="I351">
+      <c r="I351" s="8">
         <v>2236</v>
       </c>
       <c r="J351">
@@ -17213,7 +17209,7 @@
         <v>84.7</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A352" s="7" t="s">
         <v>1479</v>
       </c>
@@ -17232,13 +17228,13 @@
       <c r="F352" t="s">
         <v>1152</v>
       </c>
-      <c r="G352">
+      <c r="G352" s="8">
         <v>235</v>
       </c>
       <c r="H352">
         <v>25.197800000000001</v>
       </c>
-      <c r="I352">
+      <c r="I352" s="8">
         <v>2293.3036000000002</v>
       </c>
       <c r="J352">
@@ -17251,7 +17247,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353" s="7" t="s">
         <v>1551</v>
       </c>
@@ -17270,13 +17266,13 @@
       <c r="F353" t="s">
         <v>1143</v>
       </c>
-      <c r="G353">
+      <c r="G353" s="8">
         <v>67</v>
       </c>
       <c r="H353">
         <v>25.4191</v>
       </c>
-      <c r="I353">
+      <c r="I353" s="8">
         <v>2261</v>
       </c>
       <c r="J353">
@@ -17289,7 +17285,7 @@
         <v>89.8</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354" s="7" t="s">
         <v>1480</v>
       </c>
@@ -17308,13 +17304,13 @@
       <c r="F354" t="s">
         <v>1160</v>
       </c>
-      <c r="G354">
+      <c r="G354" s="8">
         <v>272</v>
       </c>
       <c r="H354">
         <v>25.888400000000001</v>
       </c>
-      <c r="I354">
+      <c r="I354" s="8">
         <v>2362</v>
       </c>
       <c r="J354">
@@ -17327,7 +17323,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355" s="7" t="s">
         <v>1481</v>
       </c>
@@ -17343,13 +17339,13 @@
       <c r="F355" t="s">
         <v>1163</v>
       </c>
-      <c r="G355">
+      <c r="G355" s="8">
         <v>235</v>
       </c>
       <c r="H355">
         <v>25.9254</v>
       </c>
-      <c r="I355">
+      <c r="I355" s="8">
         <v>2334</v>
       </c>
       <c r="J355">
@@ -17362,7 +17358,7 @@
         <v>86.6</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356" s="7" t="s">
         <v>1482</v>
       </c>
@@ -17378,13 +17374,13 @@
       <c r="F356" t="s">
         <v>1163</v>
       </c>
-      <c r="G356">
+      <c r="G356" s="8">
         <v>235</v>
       </c>
       <c r="H356">
         <v>25.92</v>
       </c>
-      <c r="I356">
+      <c r="I356" s="8">
         <v>2270</v>
       </c>
       <c r="J356">
@@ -17397,7 +17393,7 @@
         <v>84.4</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357" s="7" t="s">
         <v>1543</v>
       </c>
@@ -17416,13 +17412,13 @@
       <c r="F357" t="s">
         <v>1048</v>
       </c>
-      <c r="G357">
+      <c r="G357" s="8">
         <v>191</v>
       </c>
       <c r="H357">
         <v>18.853200000000001</v>
       </c>
-      <c r="I357">
+      <c r="I357" s="8">
         <v>1658</v>
       </c>
       <c r="J357">
@@ -17432,7 +17428,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358" s="7" t="s">
         <v>1543</v>
       </c>
@@ -17451,13 +17447,13 @@
       <c r="F358" t="s">
         <v>1048</v>
       </c>
-      <c r="G358">
+      <c r="G358" s="8">
         <v>191</v>
       </c>
       <c r="H358">
         <v>18.932400000000001</v>
       </c>
-      <c r="I358">
+      <c r="I358" s="8">
         <v>1664</v>
       </c>
       <c r="J358">
@@ -17470,7 +17466,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359" s="7" t="s">
         <v>1483</v>
       </c>
@@ -17489,13 +17485,13 @@
       <c r="F359" t="s">
         <v>1172</v>
       </c>
-      <c r="G359">
+      <c r="G359" s="8">
         <v>184</v>
       </c>
       <c r="H359">
         <v>27.300799999999999</v>
       </c>
-      <c r="I359">
+      <c r="I359" s="8">
         <v>2510</v>
       </c>
       <c r="J359">
@@ -17508,7 +17504,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360" s="7" t="s">
         <v>1506</v>
       </c>
@@ -17524,13 +17520,13 @@
       <c r="F360" t="s">
         <v>1175</v>
       </c>
-      <c r="G360">
+      <c r="G360" s="8">
         <v>83</v>
       </c>
       <c r="H360">
         <v>15.116899999999999</v>
       </c>
-      <c r="I360">
+      <c r="I360" s="8">
         <v>1392</v>
       </c>
       <c r="J360">
@@ -17540,7 +17536,7 @@
         <v>91.8</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361" s="7" t="s">
         <v>1535</v>
       </c>
@@ -17559,13 +17555,13 @@
       <c r="F361" t="s">
         <v>1179</v>
       </c>
-      <c r="G361">
+      <c r="G361" s="8">
         <v>105</v>
       </c>
       <c r="H361">
         <v>19.156500000000001</v>
       </c>
-      <c r="I361">
+      <c r="I361" s="8">
         <v>1708</v>
       </c>
       <c r="J361">
@@ -17575,7 +17571,7 @@
         <v>90.1</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362" s="7" t="s">
         <v>1499</v>
       </c>
@@ -17591,13 +17587,13 @@
       <c r="F362" t="s">
         <v>1182</v>
       </c>
-      <c r="G362">
+      <c r="G362" s="8">
         <v>70</v>
       </c>
       <c r="H362">
         <v>12.683299999999999</v>
       </c>
-      <c r="I362">
+      <c r="I362" s="8">
         <v>1220</v>
       </c>
       <c r="J362">
@@ -17607,7 +17603,7 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363" s="7" t="s">
         <v>1484</v>
       </c>
@@ -17623,13 +17619,13 @@
       <c r="F363" t="s">
         <v>1185</v>
       </c>
-      <c r="G363">
+      <c r="G363" s="8">
         <v>91</v>
       </c>
       <c r="H363">
         <v>19.8995</v>
       </c>
-      <c r="I363">
+      <c r="I363" s="8">
         <v>1766</v>
       </c>
       <c r="J363">
@@ -17639,7 +17635,7 @@
         <v>90.5</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364" s="7" t="s">
         <v>1485</v>
       </c>
@@ -17655,13 +17651,13 @@
       <c r="F364" t="s">
         <v>1188</v>
       </c>
-      <c r="G364">
+      <c r="G364" s="8">
         <v>83</v>
       </c>
       <c r="H364">
         <v>23.3552</v>
       </c>
-      <c r="I364">
+      <c r="I364" s="8">
         <v>2110</v>
       </c>
       <c r="J364">
@@ -17671,7 +17667,7 @@
         <v>88.8</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365" s="7" t="s">
         <v>1486</v>
       </c>
@@ -17690,13 +17686,13 @@
       <c r="F365" t="s">
         <v>1192</v>
       </c>
-      <c r="G365">
+      <c r="G365" s="8">
         <v>56</v>
       </c>
       <c r="H365">
         <v>4.2188999999999997</v>
       </c>
-      <c r="I365">
+      <c r="I365" s="8">
         <v>812</v>
       </c>
       <c r="J365">
@@ -17706,7 +17702,7 @@
         <v>98.4</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366" s="7" t="s">
         <v>1487</v>
       </c>
@@ -17725,13 +17721,13 @@
       <c r="F366" t="s">
         <v>1196</v>
       </c>
-      <c r="G366">
+      <c r="G366" s="8">
         <v>73</v>
       </c>
       <c r="H366">
         <v>18.712800000000001</v>
       </c>
-      <c r="I366">
+      <c r="I366" s="8">
         <v>1704</v>
       </c>
       <c r="J366">
@@ -17744,7 +17740,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367" s="7" t="s">
         <v>1498</v>
       </c>
@@ -17763,13 +17759,13 @@
       <c r="F367" t="s">
         <v>1200</v>
       </c>
-      <c r="G367">
+      <c r="G367" s="8">
         <v>200</v>
       </c>
       <c r="H367">
         <v>23.581399999999999</v>
       </c>
-      <c r="I367">
+      <c r="I367" s="8">
         <v>2140</v>
       </c>
       <c r="J367">
@@ -17782,7 +17778,7 @@
         <v>96.1</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368" s="7" t="s">
         <v>1488</v>
       </c>
@@ -17801,13 +17797,13 @@
       <c r="F368" t="s">
         <v>1204</v>
       </c>
-      <c r="G368">
+      <c r="G368" s="8">
         <v>56</v>
       </c>
       <c r="H368">
         <v>24.1568</v>
       </c>
-      <c r="I368">
+      <c r="I368" s="8">
         <v>2175</v>
       </c>
       <c r="J368">
@@ -17817,7 +17813,7 @@
         <v>94.8</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A369" s="7" t="s">
         <v>1509</v>
       </c>
@@ -17836,13 +17832,13 @@
       <c r="F369" t="s">
         <v>1208</v>
       </c>
-      <c r="G369">
+      <c r="G369" s="8">
         <v>56</v>
       </c>
       <c r="H369">
         <v>25.960100000000001</v>
       </c>
-      <c r="I369">
+      <c r="I369" s="8">
         <v>2388</v>
       </c>
       <c r="J369">
@@ -17852,7 +17848,7 @@
         <v>93.8</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A370" s="7" t="s">
         <v>1560</v>
       </c>
@@ -17871,13 +17867,13 @@
       <c r="F370" t="s">
         <v>1211</v>
       </c>
-      <c r="G370">
+      <c r="G370" s="8">
         <v>84</v>
       </c>
       <c r="H370">
         <v>25.046700000000001</v>
       </c>
-      <c r="I370">
+      <c r="I370" s="8">
         <v>2231</v>
       </c>
       <c r="J370">
@@ -17890,7 +17886,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A371" s="7" t="s">
         <v>1489</v>
       </c>
@@ -17909,13 +17905,13 @@
       <c r="F371" t="s">
         <v>1185</v>
       </c>
-      <c r="G371">
+      <c r="G371" s="8">
         <v>105</v>
       </c>
       <c r="H371">
         <v>20.336600000000001</v>
       </c>
-      <c r="I371">
+      <c r="I371" s="8">
         <v>1812</v>
       </c>
       <c r="J371">
@@ -17925,7 +17921,7 @@
         <v>90.7</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A372" s="7" t="s">
         <v>1490</v>
       </c>
@@ -17944,13 +17940,13 @@
       <c r="F372" t="s">
         <v>1218</v>
       </c>
-      <c r="G372">
+      <c r="G372" s="8">
         <v>83</v>
       </c>
       <c r="H372">
         <v>16.268699999999999</v>
       </c>
-      <c r="I372">
+      <c r="I372" s="8">
         <v>1474</v>
       </c>
       <c r="J372">
@@ -17960,7 +17956,7 @@
         <v>92.7</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A373" s="7" t="s">
         <v>1525</v>
       </c>
@@ -17979,13 +17975,13 @@
       <c r="F373" t="s">
         <v>1185</v>
       </c>
-      <c r="G373">
+      <c r="G373" s="8">
         <v>91</v>
       </c>
       <c r="H373">
         <v>19.648700000000002</v>
       </c>
-      <c r="I373">
+      <c r="I373" s="8">
         <v>1742</v>
       </c>
       <c r="J373">
@@ -17995,7 +17991,7 @@
         <v>91.8</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A374" s="7" t="s">
         <v>1550</v>
       </c>
@@ -18014,13 +18010,13 @@
       <c r="F374" t="s">
         <v>1225</v>
       </c>
-      <c r="G374">
+      <c r="G374" s="8">
         <v>177</v>
       </c>
       <c r="H374">
         <v>16.224599999999999</v>
       </c>
-      <c r="I374">
+      <c r="I374" s="8">
         <v>1472</v>
       </c>
       <c r="J374">
@@ -18030,7 +18026,7 @@
         <v>84.5</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A375" s="7" t="s">
         <v>1534</v>
       </c>
@@ -18049,13 +18045,13 @@
       <c r="F375" t="s">
         <v>1179</v>
       </c>
-      <c r="G375">
+      <c r="G375" s="8">
         <v>91</v>
       </c>
       <c r="H375">
         <v>18.4513</v>
       </c>
-      <c r="I375">
+      <c r="I375" s="8">
         <v>1643</v>
       </c>
       <c r="J375">
@@ -18065,7 +18061,7 @@
         <v>88.4</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A376" s="7" t="s">
         <v>1524</v>
       </c>
@@ -18084,13 +18080,13 @@
       <c r="F376" t="s">
         <v>1185</v>
       </c>
-      <c r="G376">
+      <c r="G376" s="8">
         <v>91</v>
       </c>
       <c r="H376">
         <v>19.439900000000002</v>
       </c>
-      <c r="I376">
+      <c r="I376" s="8">
         <v>1726</v>
       </c>
       <c r="J376">
@@ -18100,7 +18096,7 @@
         <v>87.9</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A377" s="7" t="s">
         <v>1491</v>
       </c>
@@ -18119,13 +18115,13 @@
       <c r="F377" t="s">
         <v>1235</v>
       </c>
-      <c r="G377">
+      <c r="G377" s="8">
         <v>140</v>
       </c>
       <c r="H377">
         <v>10.6851</v>
       </c>
-      <c r="I377">
+      <c r="I377" s="8">
         <v>1137</v>
       </c>
       <c r="J377">
@@ -18138,7 +18134,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A378" s="7" t="s">
         <v>1547</v>
       </c>
@@ -18157,13 +18153,13 @@
       <c r="F378" t="s">
         <v>182</v>
       </c>
-      <c r="G378">
+      <c r="G378" s="8">
         <v>119</v>
       </c>
       <c r="H378">
         <v>10.019500000000001</v>
       </c>
-      <c r="I378">
+      <c r="I378" s="8">
         <v>1071</v>
       </c>
       <c r="J378">
@@ -18173,7 +18169,7 @@
         <v>91.8</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A379" s="7" t="s">
         <v>1606</v>
       </c>
@@ -18192,13 +18188,13 @@
       <c r="F379" t="s">
         <v>317</v>
       </c>
-      <c r="G379">
+      <c r="G379" s="8">
         <v>123</v>
       </c>
       <c r="H379">
         <v>23.236699999999999</v>
       </c>
-      <c r="I379">
+      <c r="I379" s="8">
         <v>2086</v>
       </c>
       <c r="J379">
@@ -18207,8 +18203,8 @@
       <c r="K379" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AQ379">
-    <sortCondition ref="B2:B379"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AQ380">
+    <sortCondition ref="B2:B380"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
